--- a/Project Documents/Testing Data.xlsx
+++ b/Project Documents/Testing Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1011AB64-B1FE-4A0E-B109-520E9D42E533}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A83632-65B8-4426-B565-5760F6080C67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Test Data" sheetId="1" r:id="rId1"/>
@@ -382,30 +382,6 @@
     <xf numFmtId="164" fontId="2" fillId="6" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -416,32 +392,8 @@
     <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="4" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="6" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="6" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="6" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1"/>
@@ -458,21 +410,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -487,24 +424,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -521,9 +440,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -569,15 +485,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -595,6 +502,99 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1859,7 +1859,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1872,7 +1872,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" b="0" cap="none" baseline="0"/>
               <a:t>Right Handedness</a:t>
             </a:r>
           </a:p>
@@ -1891,7 +1891,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2383,7 +2383,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" cap="all" baseline="0"/>
                   <a:t>X Axis Position</a:t>
                 </a:r>
               </a:p>
@@ -2490,8 +2490,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of taps</a:t>
+                  <a:rPr lang="en-GB" cap="all" baseline="0"/>
+                  <a:t>Number of Taps</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2643,7 +2643,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" b="0" cap="none" baseline="0"/>
               <a:t>Left Handedness</a:t>
             </a:r>
           </a:p>
@@ -3154,12 +3154,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>X</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Axis Position</a:t>
+                  <a:rPr lang="en-GB" cap="all" baseline="0"/>
+                  <a:t>X Axis Position</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3264,8 +3260,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Number of taps</a:t>
+                  <a:rPr lang="en-GB" cap="all" baseline="0"/>
+                  <a:t>Number of Taps</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6074,114 +6070,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="D41" sqref="D41:G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="64" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="1" customWidth="1"/>
-    <col min="12" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
-    <col min="16" max="29" width="9.140625" style="1"/>
-    <col min="30" max="77" width="9.140625" style="51"/>
-    <col min="78" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="43" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="43" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="1" customWidth="1"/>
+    <col min="16" max="29" width="9.109375" style="1"/>
+    <col min="30" max="77" width="9.109375" style="35"/>
+    <col min="78" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51"/>
-      <c r="B1" s="66" t="s">
+    <row r="1" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35"/>
+      <c r="B1" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-    </row>
-    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="78" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+    </row>
+    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35"/>
+      <c r="B2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="41" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="23" t="s">
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-    </row>
-    <row r="3" spans="1:29" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="106" t="s">
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+    </row>
+    <row r="3" spans="1:29" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A3" s="35"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="F3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="77" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="14" t="s">
@@ -6205,30 +6201,30 @@
       <c r="N3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="79">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4" s="35"/>
+      <c r="B4" s="51">
         <v>1</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="51">
         <v>81</v>
       </c>
       <c r="D4" s="2">
@@ -6252,7 +6248,7 @@
       <c r="J4" s="3">
         <v>0.75172758102417003</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="27">
         <v>14.8005275726318</v>
       </c>
       <c r="L4" s="4">
@@ -6264,30 +6260,30 @@
       <c r="N4" s="4">
         <v>1.23622334003448</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="18">
         <v>120.002143859863</v>
       </c>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="79">
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="35"/>
+      <c r="B5" s="51">
         <v>2</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="51">
         <v>79</v>
       </c>
       <c r="D5" s="5">
@@ -6311,7 +6307,7 @@
       <c r="J5" s="6">
         <v>1.8369932174682599</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="28">
         <v>16.069351196289102</v>
       </c>
       <c r="L5" s="7">
@@ -6323,30 +6319,30 @@
       <c r="N5" s="7">
         <v>1.3859385251998899</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="19">
         <v>21.09934425354</v>
       </c>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="79">
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="35"/>
+      <c r="B6" s="51">
         <v>3</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="51">
         <v>22</v>
       </c>
       <c r="D6" s="5">
@@ -6370,10 +6366,10 @@
       <c r="J6" s="6">
         <v>1.3868255615234399</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="28">
         <v>113.833854675293</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="26">
         <v>0.91046917438507102</v>
       </c>
       <c r="M6" s="7">
@@ -6382,30 +6378,30 @@
       <c r="N6" s="7">
         <v>1.5705726146698</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="19">
         <v>120.00042724609401</v>
       </c>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="79">
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="35"/>
+      <c r="B7" s="51">
         <v>4</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="51">
         <v>53</v>
       </c>
       <c r="D7" s="5">
@@ -6429,7 +6425,7 @@
       <c r="J7" s="6">
         <v>0.98563110828399603</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="28">
         <v>120.01081085205</v>
       </c>
       <c r="L7" s="7">
@@ -6441,30 +6437,30 @@
       <c r="N7" s="7">
         <v>1.33659219741821</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="19">
         <v>11.877498626708901</v>
       </c>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="79">
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="35"/>
+      <c r="B8" s="51">
         <v>5</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="51">
         <v>22</v>
       </c>
       <c r="D8" s="5">
@@ -6488,7 +6484,7 @@
       <c r="J8" s="6">
         <v>0.76872891187667802</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="28">
         <v>33.8343696594238</v>
       </c>
       <c r="L8" s="7">
@@ -6500,89 +6496,89 @@
       <c r="N8" s="7">
         <v>0.80221724510192804</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="19">
         <v>32.6508979797363</v>
       </c>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="79">
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="35"/>
+      <c r="B9" s="51">
         <v>6</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="51">
         <v>19</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="20">
         <v>0.58643275499343805</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="20">
         <v>0.40094467997550898</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="20">
         <v>1.65337014198303</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="21">
         <v>76.797431945800696</v>
       </c>
       <c r="H9" s="10">
         <v>0.94429296255111606</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="22">
         <v>0.48457017540931702</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="22">
         <v>1.93841636180877</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="29">
         <v>120.00212097167901</v>
       </c>
       <c r="L9" s="7">
         <v>2.005061</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="23">
         <v>1.50378501415252</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="23">
         <v>2.5063374042510902</v>
       </c>
-      <c r="O9" s="32">
+      <c r="O9" s="24">
         <v>6.49977207183837</v>
       </c>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="79">
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" s="35"/>
+      <c r="B10" s="51">
         <v>7</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="51">
         <v>54</v>
       </c>
       <c r="D10" s="5">
@@ -6606,7 +6602,7 @@
       <c r="J10" s="6">
         <v>1.42029464244842</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="28">
         <v>120.01651763916</v>
       </c>
       <c r="L10" s="4">
@@ -6618,89 +6614,89 @@
       <c r="N10" s="7">
         <v>1.720543384552</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="19">
         <v>43.953231811523402</v>
       </c>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="79">
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="35"/>
+      <c r="B11" s="51">
         <v>8</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="51">
         <v>24</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="20">
         <v>0.53630238771438499</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="20">
         <v>0.433664500713348</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="20">
         <v>1.23623859882354</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="21">
         <v>75.324562072753906</v>
       </c>
       <c r="H11" s="10">
         <v>0.55744111537933305</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="22">
         <v>0.33419075608253401</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="22">
         <v>0.73535525798797596</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="29">
         <v>54.1674194335937</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="23">
         <v>0.79987239837646396</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="23">
         <v>0.467870473861694</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="23">
         <v>1.2026244401931701</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="24">
         <v>92.248283386230398</v>
       </c>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="79">
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="35"/>
+      <c r="B12" s="51">
         <v>9</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="51">
         <v>31</v>
       </c>
       <c r="D12" s="5">
@@ -6724,7 +6720,7 @@
       <c r="J12" s="6">
         <v>1.52028548717498</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="28">
         <v>38.924121856689403</v>
       </c>
       <c r="L12" s="7">
@@ -6736,198 +6732,198 @@
       <c r="N12" s="7">
         <v>1.0696396827697701</v>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="19">
         <v>62.160732269287102</v>
       </c>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="79">
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="35"/>
+      <c r="B13" s="51">
         <v>10</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="51">
         <v>22</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="20">
         <v>0.62321782112121504</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="20">
         <v>0.41760548949241599</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="20">
         <v>0.75171130895614602</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="21">
         <v>77.730888366699205</v>
       </c>
       <c r="H13" s="10">
         <v>0.65149915218353205</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="22">
         <v>0.38422843813896101</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="22">
         <v>0.68488574028015103</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="29">
         <v>24.937904357910099</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="23">
         <v>1.5088682174682599</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="23">
         <v>0.51783686876296997</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="23">
         <v>1.82100558280944</v>
       </c>
-      <c r="O13" s="32">
+      <c r="O13" s="24">
         <v>23.4363079071044</v>
       </c>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
-      <c r="B16" s="33" t="s">
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14" s="35"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15" s="35"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16" s="35"/>
+      <c r="B16" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="90"/>
+      <c r="D16" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18" t="s">
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="34" t="s">
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-    </row>
-    <row r="17" spans="1:29" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="84" t="s">
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+    </row>
+    <row r="17" spans="1:29" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A17" s="35"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="84" t="s">
+      <c r="F17" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="84" t="s">
+      <c r="G17" s="56" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="14" t="s">
@@ -6951,28 +6947,28 @@
       <c r="N17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="39"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18" s="35"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="5">
         <f t="shared" ref="D18:J18" si="0">SUM(D4:D13)/10</f>
         <v>0.63383696675300571</v>
@@ -7001,7 +6997,7 @@
         <f t="shared" si="0"/>
         <v>1.2029143869876842</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="30">
         <f>SUM(K4:K13)/10</f>
         <v>65.659699821472003</v>
       </c>
@@ -7017,147 +7013,147 @@
         <f t="shared" si="1"/>
         <v>1.4651694416999779</v>
       </c>
-      <c r="O18" s="37">
+      <c r="O18" s="25">
         <f t="shared" si="1"/>
         <v>53.392863941192594</v>
       </c>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-    </row>
-    <row r="19" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
-    </row>
-    <row r="20" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="66" t="s">
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+    </row>
+    <row r="19" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="35"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+    </row>
+    <row r="20" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="51"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="78" t="s">
+      <c r="C20" s="99"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21" s="35"/>
+      <c r="B21" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="41" t="s">
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="23" t="s">
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-    </row>
-    <row r="22" spans="1:29" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
-      <c r="B22" s="78" t="s">
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+    </row>
+    <row r="22" spans="1:29" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A22" s="35"/>
+      <c r="B22" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="106" t="s">
+      <c r="D22" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="107" t="s">
+      <c r="E22" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="107" t="s">
+      <c r="F22" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="108" t="s">
+      <c r="G22" s="77" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="14" t="s">
@@ -7181,30 +7177,30 @@
       <c r="N22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O22" s="25" t="s">
+      <c r="O22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="79">
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A23" s="35"/>
+      <c r="B23" s="51">
         <v>1</v>
       </c>
-      <c r="C23" s="79">
+      <c r="C23" s="51">
         <v>81</v>
       </c>
       <c r="D23" s="2">
@@ -7228,7 +7224,7 @@
       <c r="J23" s="3">
         <v>0.68519055843353205</v>
       </c>
-      <c r="K23" s="43">
+      <c r="K23" s="27">
         <v>12.245947837829499</v>
       </c>
       <c r="L23" s="4">
@@ -7240,30 +7236,30 @@
       <c r="N23" s="4">
         <v>1.2030334472656199</v>
       </c>
-      <c r="O23" s="26">
+      <c r="O23" s="18">
         <v>2.9066522121429399</v>
       </c>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="51"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="79">
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24" s="35"/>
+      <c r="B24" s="51">
         <v>2</v>
       </c>
-      <c r="C24" s="79">
+      <c r="C24" s="51">
         <v>79</v>
       </c>
       <c r="D24" s="5">
@@ -7287,7 +7283,7 @@
       <c r="J24" s="6">
         <v>1.7543704509735101</v>
       </c>
-      <c r="K24" s="44">
+      <c r="K24" s="28">
         <v>14.800477981567299</v>
       </c>
       <c r="L24" s="7">
@@ -7299,30 +7295,30 @@
       <c r="N24" s="7">
         <v>1.0519871711730899</v>
       </c>
-      <c r="O24" s="27">
+      <c r="O24" s="19">
         <v>13.3147850036621</v>
       </c>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="79">
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25" s="35"/>
+      <c r="B25" s="51">
         <v>3</v>
       </c>
-      <c r="C25" s="79">
+      <c r="C25" s="51">
         <v>22</v>
       </c>
       <c r="D25" s="5">
@@ -7346,10 +7342,10 @@
       <c r="J25" s="6">
         <v>0.95195090770721402</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="28">
         <v>120.01129150390599</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="26">
         <v>1.0857466459274201</v>
       </c>
       <c r="M25" s="7">
@@ -7358,30 +7354,30 @@
       <c r="N25" s="7">
         <v>2.25520420074462</v>
       </c>
-      <c r="O25" s="27">
+      <c r="O25" s="19">
         <v>64.760124206542898</v>
       </c>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="79">
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" s="35"/>
+      <c r="B26" s="51">
         <v>4</v>
       </c>
-      <c r="C26" s="79">
+      <c r="C26" s="51">
         <v>53</v>
       </c>
       <c r="D26" s="5">
@@ -7405,7 +7401,7 @@
       <c r="J26" s="6">
         <v>1.3863563537597601</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="28">
         <v>24.939407348632798</v>
       </c>
       <c r="L26" s="7">
@@ -7417,30 +7413,30 @@
       <c r="N26" s="7">
         <v>1.4525476694107</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O26" s="19">
         <v>16.387712478637599</v>
       </c>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="79">
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27" s="35"/>
+      <c r="B27" s="51">
         <v>5</v>
       </c>
-      <c r="C27" s="79">
+      <c r="C27" s="51">
         <v>22</v>
       </c>
       <c r="D27" s="5">
@@ -7464,7 +7460,7 @@
       <c r="J27" s="6">
         <v>1.35363733768463</v>
       </c>
-      <c r="K27" s="44">
+      <c r="K27" s="28">
         <v>120.009300231933</v>
       </c>
       <c r="L27" s="7">
@@ -7476,89 +7472,89 @@
       <c r="N27" s="7">
         <v>1.0528041124343801</v>
       </c>
-      <c r="O27" s="27">
+      <c r="O27" s="19">
         <v>120.01535034179599</v>
       </c>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="51"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="79">
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28" s="35"/>
+      <c r="B28" s="51">
         <v>6</v>
       </c>
-      <c r="C28" s="79">
+      <c r="C28" s="51">
         <v>19</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="20">
         <v>0.67103046178817705</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="20">
         <v>0.40097767114639199</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="20">
         <v>1.16867268085479</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="21">
         <v>79.234329223632798</v>
       </c>
       <c r="H28" s="10">
         <v>1.1913731098175</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="22">
         <v>0.467855244874954</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J28" s="22">
         <v>3.6591870784759499</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="29">
         <v>46.548931121826101</v>
       </c>
       <c r="L28" s="7">
         <v>0.93426424264907804</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M28" s="23">
         <v>0.55141270160675004</v>
       </c>
-      <c r="N28" s="31">
+      <c r="N28" s="23">
         <v>1.6040426492691</v>
       </c>
-      <c r="O28" s="32">
+      <c r="O28" s="24">
         <v>72.0950927734375</v>
       </c>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="79">
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A29" s="35"/>
+      <c r="B29" s="51">
         <v>7</v>
       </c>
-      <c r="C29" s="79">
+      <c r="C29" s="51">
         <v>54</v>
       </c>
       <c r="D29" s="5">
@@ -7582,7 +7578,7 @@
       <c r="J29" s="6">
         <v>0.801713526248931</v>
       </c>
-      <c r="K29" s="44">
+      <c r="K29" s="28">
         <v>120.00911712646401</v>
       </c>
       <c r="L29" s="4">
@@ -7594,89 +7590,89 @@
       <c r="N29" s="7">
         <v>1.30335056781768</v>
       </c>
-      <c r="O29" s="27">
+      <c r="O29" s="19">
         <v>15.4016008377075</v>
       </c>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="79">
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A30" s="35"/>
+      <c r="B30" s="51">
         <v>8</v>
       </c>
-      <c r="C30" s="79">
+      <c r="C30" s="51">
         <v>24</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="20">
         <v>0.50569486618041903</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="20">
         <v>0.38427218794822599</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="20">
         <v>0.76775866746902399</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="21">
         <v>74.449195861816406</v>
       </c>
       <c r="H30" s="10">
         <v>0.39806762337684598</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="22">
         <v>6.6838942468166296E-2</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J30" s="22">
         <v>1.0024343729019101</v>
       </c>
-      <c r="K30" s="45">
+      <c r="K30" s="29">
         <v>120.01619720458901</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L30" s="23">
         <v>0.57032418251037598</v>
       </c>
-      <c r="M30" s="31">
+      <c r="M30" s="23">
         <v>0.36753180623054499</v>
       </c>
-      <c r="N30" s="31">
+      <c r="N30" s="23">
         <v>0.81856828927993697</v>
       </c>
-      <c r="O30" s="32">
+      <c r="O30" s="24">
         <v>120.012336730957</v>
       </c>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
-      <c r="B31" s="79">
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A31" s="35"/>
+      <c r="B31" s="51">
         <v>9</v>
       </c>
-      <c r="C31" s="79">
+      <c r="C31" s="51">
         <v>31</v>
       </c>
       <c r="D31" s="5">
@@ -7700,7 +7696,7 @@
       <c r="J31" s="6">
         <v>0.81778651475906305</v>
       </c>
-      <c r="K31" s="44">
+      <c r="K31" s="28">
         <v>120.00788116455</v>
       </c>
       <c r="L31" s="7">
@@ -7712,198 +7708,198 @@
       <c r="N31" s="7">
         <v>0.98559331893920898</v>
       </c>
-      <c r="O31" s="27">
+      <c r="O31" s="19">
         <v>92.696395874023395</v>
       </c>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="51"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="79">
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A32" s="35"/>
+      <c r="B32" s="51">
         <v>10</v>
       </c>
-      <c r="C32" s="79">
+      <c r="C32" s="51">
         <v>22</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="20">
         <v>0.52926480770110995</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="20">
         <v>0.40083014965057301</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="20">
         <v>0.86781519651412897</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="21">
         <v>75.007675170898395</v>
       </c>
       <c r="H32" s="10">
         <v>0.623729467391967</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="22">
         <v>0.25056260824203402</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="22">
         <v>5.1435909271240199</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="29">
         <v>120.011009216308</v>
       </c>
-      <c r="L32" s="31">
+      <c r="L32" s="23">
         <v>0.58283084630966098</v>
       </c>
-      <c r="M32" s="31">
+      <c r="M32" s="23">
         <v>0.36756956577300998</v>
       </c>
-      <c r="N32" s="31">
+      <c r="N32" s="23">
         <v>1.25320637226104</v>
       </c>
-      <c r="O32" s="32">
+      <c r="O32" s="24">
         <v>120.00161743164</v>
       </c>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="51"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="51"/>
-      <c r="AC33" s="51"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
-      <c r="B35" s="33" t="s">
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A33" s="35"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A34" s="35"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A35" s="35"/>
+      <c r="B35" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="17" t="s">
+      <c r="C35" s="90"/>
+      <c r="D35" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18" t="s">
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="34" t="s">
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
-    </row>
-    <row r="36" spans="1:29" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="84" t="s">
+      <c r="M35" s="97"/>
+      <c r="N35" s="97"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+    </row>
+    <row r="36" spans="1:29" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A36" s="35"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="84" t="s">
+      <c r="E36" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="84" t="s">
+      <c r="F36" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="84" t="s">
+      <c r="G36" s="56" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="14" t="s">
@@ -7927,28 +7923,28 @@
       <c r="N36" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O36" s="25" t="s">
+      <c r="O36" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="51"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="39"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A37" s="35"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="5">
         <f t="shared" ref="D37:J37" si="2">SUM(D23:D32)/10</f>
         <v>0.59846009910106623</v>
@@ -7977,7 +7973,7 @@
         <f t="shared" si="2"/>
         <v>1.7556218028068522</v>
       </c>
-      <c r="K37" s="46">
+      <c r="K37" s="30">
         <f>SUM(K23:K32)/10</f>
         <v>81.859956073760571</v>
       </c>
@@ -7993,148 +7989,148 @@
         <f t="shared" si="3"/>
         <v>1.2980337798595378</v>
       </c>
-      <c r="O37" s="37">
+      <c r="O37" s="25">
         <f t="shared" si="3"/>
         <v>63.759166789054689</v>
       </c>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-    </row>
-    <row r="38" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="51"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
-      <c r="AA38" s="51"/>
-      <c r="AB38" s="51"/>
-      <c r="AC38" s="51"/>
-    </row>
-    <row r="39" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="51"/>
-      <c r="B39" s="66" t="s">
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+    </row>
+    <row r="38" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="35"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+    </row>
+    <row r="39" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="35"/>
+      <c r="B39" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="51"/>
-      <c r="AC39" s="51"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A40" s="51"/>
-      <c r="B40" s="78" t="s">
+      <c r="C39" s="99"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A40" s="35"/>
+      <c r="B40" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="C40" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="41" t="s">
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="23" t="s">
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="51"/>
-      <c r="AC40" s="51"/>
-    </row>
-    <row r="41" spans="1:29" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="51"/>
-      <c r="B41" s="78" t="s">
+      <c r="M40" s="104"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+    </row>
+    <row r="41" spans="1:29" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A41" s="35"/>
+      <c r="B41" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="106" t="s">
+      <c r="D41" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="107" t="s">
+      <c r="E41" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="107" t="s">
+      <c r="F41" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="108" t="s">
+      <c r="G41" s="77" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="14" t="s">
@@ -8158,30 +8154,30 @@
       <c r="N41" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O41" s="25" t="s">
+      <c r="O41" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="51"/>
-      <c r="AC41" s="51"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A42" s="51"/>
-      <c r="B42" s="79">
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A42" s="35"/>
+      <c r="B42" s="51">
         <v>1</v>
       </c>
-      <c r="C42" s="79">
+      <c r="C42" s="51">
         <v>81</v>
       </c>
       <c r="D42" s="2">
@@ -8205,7 +8201,7 @@
       <c r="J42" s="3">
         <v>1.13606905937194</v>
       </c>
-      <c r="K42" s="43">
+      <c r="K42" s="27">
         <v>41.4597358703613</v>
       </c>
       <c r="L42" s="4">
@@ -8217,30 +8213,30 @@
       <c r="N42" s="4">
         <v>1.6373885869979801</v>
       </c>
-      <c r="O42" s="26">
+      <c r="O42" s="18">
         <v>120.00917816162099</v>
       </c>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="51"/>
-      <c r="U42" s="51"/>
-      <c r="V42" s="51"/>
-      <c r="W42" s="51"/>
-      <c r="X42" s="51"/>
-      <c r="Y42" s="51"/>
-      <c r="Z42" s="51"/>
-      <c r="AA42" s="51"/>
-      <c r="AB42" s="51"/>
-      <c r="AC42" s="51"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
-      <c r="B43" s="79">
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A43" s="35"/>
+      <c r="B43" s="51">
         <v>2</v>
       </c>
-      <c r="C43" s="79">
+      <c r="C43" s="51">
         <v>79</v>
       </c>
       <c r="D43" s="5">
@@ -8264,7 +8260,7 @@
       <c r="J43" s="6">
         <v>3.6750361919403001</v>
       </c>
-      <c r="K43" s="44">
+      <c r="K43" s="28">
         <v>120.006378173828</v>
       </c>
       <c r="L43" s="7">
@@ -8276,30 +8272,30 @@
       <c r="N43" s="7">
         <v>1.4534548521041799</v>
       </c>
-      <c r="O43" s="27">
+      <c r="O43" s="19">
         <v>55.348716735839801</v>
       </c>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="51"/>
-      <c r="T43" s="51"/>
-      <c r="U43" s="51"/>
-      <c r="V43" s="51"/>
-      <c r="W43" s="51"/>
-      <c r="X43" s="51"/>
-      <c r="Y43" s="51"/>
-      <c r="Z43" s="51"/>
-      <c r="AA43" s="51"/>
-      <c r="AB43" s="51"/>
-      <c r="AC43" s="51"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A44" s="51"/>
-      <c r="B44" s="79">
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A44" s="35"/>
+      <c r="B44" s="51">
         <v>3</v>
       </c>
-      <c r="C44" s="79">
+      <c r="C44" s="51">
         <v>22</v>
       </c>
       <c r="D44" s="5">
@@ -8323,10 +8319,10 @@
       <c r="J44" s="6">
         <v>0.91799050569534302</v>
       </c>
-      <c r="K44" s="44">
+      <c r="K44" s="28">
         <v>120.01123046875</v>
       </c>
-      <c r="L44" s="40">
+      <c r="L44" s="26">
         <v>0.98139148950576705</v>
       </c>
       <c r="M44" s="7">
@@ -8335,30 +8331,30 @@
       <c r="N44" s="7">
         <v>1.8534899950027399</v>
       </c>
-      <c r="O44" s="27">
+      <c r="O44" s="19">
         <v>66.460594177246094</v>
       </c>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="51"/>
-      <c r="T44" s="51"/>
-      <c r="U44" s="51"/>
-      <c r="V44" s="51"/>
-      <c r="W44" s="51"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="51"/>
-      <c r="Z44" s="51"/>
-      <c r="AA44" s="51"/>
-      <c r="AB44" s="51"/>
-      <c r="AC44" s="51"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
-      <c r="B45" s="79">
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A45" s="35"/>
+      <c r="B45" s="51">
         <v>4</v>
       </c>
-      <c r="C45" s="79">
+      <c r="C45" s="51">
         <v>53</v>
       </c>
       <c r="D45" s="5">
@@ -8382,7 +8378,7 @@
       <c r="J45" s="6">
         <v>0.68504178524017301</v>
       </c>
-      <c r="K45" s="44">
+      <c r="K45" s="28">
         <v>30.0346775054931</v>
       </c>
       <c r="L45" s="7">
@@ -8394,30 +8390,30 @@
       <c r="N45" s="7">
         <v>1.1695740222930899</v>
       </c>
-      <c r="O45" s="27">
+      <c r="O45" s="19">
         <v>103.11711883544901</v>
       </c>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="51"/>
-      <c r="T45" s="51"/>
-      <c r="U45" s="51"/>
-      <c r="V45" s="51"/>
-      <c r="W45" s="51"/>
-      <c r="X45" s="51"/>
-      <c r="Y45" s="51"/>
-      <c r="Z45" s="51"/>
-      <c r="AA45" s="51"/>
-      <c r="AB45" s="51"/>
-      <c r="AC45" s="51"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A46" s="51"/>
-      <c r="B46" s="79">
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A46" s="35"/>
+      <c r="B46" s="51">
         <v>5</v>
       </c>
-      <c r="C46" s="79">
+      <c r="C46" s="51">
         <v>22</v>
       </c>
       <c r="D46" s="5">
@@ -8441,7 +8437,7 @@
       <c r="J46" s="6">
         <v>5.0950059890746999</v>
       </c>
-      <c r="K46" s="44">
+      <c r="K46" s="28">
         <v>120.00204467773401</v>
       </c>
       <c r="L46" s="7">
@@ -8453,89 +8449,89 @@
       <c r="N46" s="7">
         <v>0.51801884174346902</v>
       </c>
-      <c r="O46" s="27">
+      <c r="O46" s="19">
         <v>120.003700256347</v>
       </c>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="51"/>
-      <c r="T46" s="51"/>
-      <c r="U46" s="51"/>
-      <c r="V46" s="51"/>
-      <c r="W46" s="51"/>
-      <c r="X46" s="51"/>
-      <c r="Y46" s="51"/>
-      <c r="Z46" s="51"/>
-      <c r="AA46" s="51"/>
-      <c r="AB46" s="51"/>
-      <c r="AC46" s="51"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A47" s="51"/>
-      <c r="B47" s="79">
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A47" s="35"/>
+      <c r="B47" s="51">
         <v>6</v>
       </c>
-      <c r="C47" s="79">
+      <c r="C47" s="51">
         <v>19</v>
       </c>
-      <c r="D47" s="28">
+      <c r="D47" s="20">
         <v>0.53796285390853804</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="20">
         <v>0.400901168584823</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="20">
         <v>0.88486760854721003</v>
       </c>
-      <c r="G47" s="29">
+      <c r="G47" s="21">
         <v>75.266311645507798</v>
       </c>
       <c r="H47" s="10">
         <v>0.40847617387771601</v>
       </c>
-      <c r="I47" s="30">
+      <c r="I47" s="22">
         <v>5.0140671432018197E-2</v>
       </c>
-      <c r="J47" s="30">
+      <c r="J47" s="22">
         <v>0.80193734169006303</v>
       </c>
-      <c r="K47" s="45">
+      <c r="K47" s="29">
         <v>120.010360717773</v>
       </c>
       <c r="L47" s="7">
         <v>0.58637785911560003</v>
       </c>
-      <c r="M47" s="31">
+      <c r="M47" s="23">
         <v>0.36758044362068099</v>
       </c>
-      <c r="N47" s="31">
+      <c r="N47" s="23">
         <v>0.90227144956588701</v>
       </c>
-      <c r="O47" s="32">
+      <c r="O47" s="24">
         <v>120.002632141113</v>
       </c>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="51"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="51"/>
-      <c r="T47" s="51"/>
-      <c r="U47" s="51"/>
-      <c r="V47" s="51"/>
-      <c r="W47" s="51"/>
-      <c r="X47" s="51"/>
-      <c r="Y47" s="51"/>
-      <c r="Z47" s="51"/>
-      <c r="AA47" s="51"/>
-      <c r="AB47" s="51"/>
-      <c r="AC47" s="51"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A48" s="51"/>
-      <c r="B48" s="79">
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A48" s="35"/>
+      <c r="B48" s="51">
         <v>7</v>
       </c>
-      <c r="C48" s="79">
+      <c r="C48" s="51">
         <v>54</v>
       </c>
       <c r="D48" s="5">
@@ -8559,7 +8555,7 @@
       <c r="J48" s="6">
         <v>0.96891444921493497</v>
       </c>
-      <c r="K48" s="44">
+      <c r="K48" s="28">
         <v>120.005683898925</v>
       </c>
       <c r="L48" s="4">
@@ -8571,89 +8567,89 @@
       <c r="N48" s="7">
         <v>0.90221112966537398</v>
       </c>
-      <c r="O48" s="27">
+      <c r="O48" s="19">
         <v>120.00782775878901</v>
       </c>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="51"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="51"/>
-      <c r="T48" s="51"/>
-      <c r="U48" s="51"/>
-      <c r="V48" s="51"/>
-      <c r="W48" s="51"/>
-      <c r="X48" s="51"/>
-      <c r="Y48" s="51"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
-    </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
-      <c r="B49" s="79">
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+    </row>
+    <row r="49" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A49" s="35"/>
+      <c r="B49" s="51">
         <v>8</v>
       </c>
-      <c r="C49" s="79">
+      <c r="C49" s="51">
         <v>24</v>
       </c>
-      <c r="D49" s="28">
+      <c r="D49" s="20">
         <v>0.46191784739494302</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="20">
         <v>0.35080823302268899</v>
       </c>
-      <c r="F49" s="28">
+      <c r="F49" s="20">
         <v>0.78512907028198198</v>
       </c>
-      <c r="G49" s="29">
+      <c r="G49" s="21">
         <v>73.156143188476506</v>
       </c>
       <c r="H49" s="10">
         <v>0.55681657791137695</v>
       </c>
-      <c r="I49" s="30">
+      <c r="I49" s="22">
         <v>0.18377077579498199</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="22">
         <v>5.1282968521118102</v>
       </c>
-      <c r="K49" s="45">
+      <c r="K49" s="29">
         <v>120.003410339355</v>
       </c>
-      <c r="L49" s="31">
+      <c r="L49" s="23">
         <v>0.40176185965538003</v>
       </c>
-      <c r="M49" s="31">
+      <c r="M49" s="23">
         <v>0.183722034096717</v>
       </c>
-      <c r="N49" s="31">
+      <c r="N49" s="23">
         <v>0.65155571699142401</v>
       </c>
-      <c r="O49" s="32">
+      <c r="O49" s="24">
         <v>120.004905700683</v>
       </c>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="51"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
-      <c r="T49" s="51"/>
-      <c r="U49" s="51"/>
-      <c r="V49" s="51"/>
-      <c r="W49" s="51"/>
-      <c r="X49" s="51"/>
-      <c r="Y49" s="51"/>
-      <c r="Z49" s="51"/>
-      <c r="AA49" s="51"/>
-      <c r="AB49" s="51"/>
-      <c r="AC49" s="51"/>
-    </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A50" s="51"/>
-      <c r="B50" s="79">
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+    </row>
+    <row r="50" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A50" s="35"/>
+      <c r="B50" s="51">
         <v>9</v>
       </c>
-      <c r="C50" s="79">
+      <c r="C50" s="51">
         <v>31</v>
       </c>
       <c r="D50" s="5">
@@ -8677,7 +8673,7 @@
       <c r="J50" s="6">
         <v>0.73494303226470903</v>
       </c>
-      <c r="K50" s="44">
+      <c r="K50" s="28">
         <v>120.009399414062</v>
       </c>
       <c r="L50" s="7">
@@ -8689,198 +8685,198 @@
       <c r="N50" s="7">
         <v>0.98558253049850397</v>
       </c>
-      <c r="O50" s="27">
+      <c r="O50" s="19">
         <v>120.004913330078</v>
       </c>
-      <c r="P50" s="51"/>
-      <c r="Q50" s="51"/>
-      <c r="R50" s="51"/>
-      <c r="S50" s="51"/>
-      <c r="T50" s="51"/>
-      <c r="U50" s="51"/>
-      <c r="V50" s="51"/>
-      <c r="W50" s="51"/>
-      <c r="X50" s="51"/>
-      <c r="Y50" s="51"/>
-      <c r="Z50" s="51"/>
-      <c r="AA50" s="51"/>
-      <c r="AB50" s="51"/>
-      <c r="AC50" s="51"/>
-    </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
-      <c r="B51" s="79">
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="35"/>
+    </row>
+    <row r="51" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A51" s="35"/>
+      <c r="B51" s="51">
         <v>10</v>
       </c>
-      <c r="C51" s="79">
+      <c r="C51" s="51">
         <v>22</v>
       </c>
-      <c r="D51" s="28">
+      <c r="D51" s="20">
         <v>0.44291210174560502</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="20">
         <v>0.36745890974998402</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="20">
         <v>0.63490962982177701</v>
       </c>
-      <c r="G51" s="29">
+      <c r="G51" s="21">
         <v>72.500167846679602</v>
       </c>
       <c r="H51" s="10">
         <v>0.43315306305885298</v>
       </c>
-      <c r="I51" s="30">
+      <c r="I51" s="22">
         <v>0.26736170053482</v>
       </c>
-      <c r="J51" s="30">
+      <c r="J51" s="22">
         <v>0.68451362848281805</v>
       </c>
-      <c r="K51" s="45">
+      <c r="K51" s="29">
         <v>120.00065612792901</v>
       </c>
-      <c r="L51" s="31">
+      <c r="L51" s="23">
         <v>0.45646026730537398</v>
       </c>
-      <c r="M51" s="31">
+      <c r="M51" s="23">
         <v>0.30049017071723899</v>
       </c>
-      <c r="N51" s="31">
+      <c r="N51" s="23">
         <v>0.90207254886627197</v>
       </c>
-      <c r="O51" s="32">
+      <c r="O51" s="24">
         <v>120.00562286376901</v>
       </c>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="51"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="51"/>
-      <c r="T51" s="51"/>
-      <c r="U51" s="51"/>
-      <c r="V51" s="51"/>
-      <c r="W51" s="51"/>
-      <c r="X51" s="51"/>
-      <c r="Y51" s="51"/>
-      <c r="Z51" s="51"/>
-      <c r="AA51" s="51"/>
-      <c r="AB51" s="51"/>
-      <c r="AC51" s="51"/>
-    </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A52" s="51"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="51"/>
-      <c r="S52" s="51"/>
-      <c r="T52" s="51"/>
-      <c r="U52" s="51"/>
-      <c r="V52" s="51"/>
-      <c r="W52" s="51"/>
-      <c r="X52" s="51"/>
-      <c r="Y52" s="51"/>
-      <c r="Z52" s="51"/>
-      <c r="AA52" s="51"/>
-      <c r="AB52" s="51"/>
-      <c r="AC52" s="51"/>
-    </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A53" s="51"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="51"/>
-      <c r="R53" s="51"/>
-      <c r="S53" s="51"/>
-      <c r="T53" s="51"/>
-      <c r="U53" s="51"/>
-      <c r="V53" s="51"/>
-      <c r="W53" s="51"/>
-      <c r="X53" s="51"/>
-      <c r="Y53" s="51"/>
-      <c r="Z53" s="51"/>
-      <c r="AA53" s="51"/>
-      <c r="AB53" s="51"/>
-      <c r="AC53" s="51"/>
-    </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A54" s="51"/>
-      <c r="B54" s="33" t="s">
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
+    </row>
+    <row r="52" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A52" s="35"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+    </row>
+    <row r="53" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A53" s="35"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+    </row>
+    <row r="54" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A54" s="35"/>
+      <c r="B54" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="38"/>
-      <c r="D54" s="17" t="s">
+      <c r="C54" s="90"/>
+      <c r="D54" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="18" t="s">
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="34" t="s">
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="51"/>
-      <c r="Q54" s="51"/>
-      <c r="R54" s="51"/>
-      <c r="S54" s="51"/>
-      <c r="T54" s="51"/>
-      <c r="U54" s="51"/>
-      <c r="V54" s="51"/>
-      <c r="W54" s="51"/>
-      <c r="X54" s="51"/>
-      <c r="Y54" s="51"/>
-      <c r="Z54" s="51"/>
-      <c r="AA54" s="51"/>
-      <c r="AB54" s="51"/>
-      <c r="AC54" s="51"/>
-    </row>
-    <row r="55" spans="1:77" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="51"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="84" t="s">
+      <c r="M54" s="97"/>
+      <c r="N54" s="97"/>
+      <c r="O54" s="98"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="35"/>
+    </row>
+    <row r="55" spans="1:77" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A55" s="35"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="84" t="s">
+      <c r="E55" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="84" t="s">
+      <c r="F55" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G55" s="84" t="s">
+      <c r="G55" s="56" t="s">
         <v>8</v>
       </c>
       <c r="H55" s="14" t="s">
@@ -8904,28 +8900,28 @@
       <c r="N55" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O55" s="25" t="s">
+      <c r="O55" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P55" s="51"/>
-      <c r="Q55" s="51"/>
-      <c r="R55" s="51"/>
-      <c r="S55" s="51"/>
-      <c r="T55" s="51"/>
-      <c r="U55" s="51"/>
-      <c r="V55" s="51"/>
-      <c r="W55" s="51"/>
-      <c r="X55" s="51"/>
-      <c r="Y55" s="51"/>
-      <c r="Z55" s="51"/>
-      <c r="AA55" s="51"/>
-      <c r="AB55" s="51"/>
-      <c r="AC55" s="51"/>
-    </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A56" s="51"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="39"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="35"/>
+    </row>
+    <row r="56" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A56" s="35"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="92"/>
       <c r="D56" s="5">
         <f t="shared" ref="D56:J56" si="4">SUM(D42:D51)/10</f>
         <v>0.5709184497594828</v>
@@ -8954,7 +8950,7 @@
         <f t="shared" si="4"/>
         <v>1.9827748835086794</v>
       </c>
-      <c r="K56" s="46">
+      <c r="K56" s="30">
         <f>SUM(K42:K51)/10</f>
         <v>103.15435771942104</v>
       </c>
@@ -8970,221 +8966,221 @@
         <f t="shared" si="5"/>
         <v>1.0975619673728922</v>
       </c>
-      <c r="O56" s="37">
+      <c r="O56" s="25">
         <f t="shared" si="5"/>
         <v>106.49652099609349</v>
       </c>
-      <c r="P56" s="51"/>
-      <c r="Q56" s="51"/>
-      <c r="R56" s="51"/>
-      <c r="S56" s="51"/>
-      <c r="T56" s="51"/>
-      <c r="U56" s="51"/>
-      <c r="V56" s="51"/>
-      <c r="W56" s="51"/>
-      <c r="X56" s="51"/>
-      <c r="Y56" s="51"/>
-      <c r="Z56" s="51"/>
-      <c r="AA56" s="51"/>
-      <c r="AB56" s="51"/>
-      <c r="AC56" s="51"/>
-    </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="51"/>
-      <c r="O57" s="51"/>
-      <c r="P57" s="51"/>
-      <c r="Q57" s="51"/>
-      <c r="R57" s="51"/>
-      <c r="S57" s="51"/>
-      <c r="T57" s="51"/>
-      <c r="U57" s="51"/>
-      <c r="V57" s="51"/>
-      <c r="W57" s="51"/>
-      <c r="X57" s="51"/>
-      <c r="Y57" s="51"/>
-      <c r="Z57" s="51"/>
-      <c r="AA57" s="51"/>
-      <c r="AB57" s="51"/>
-      <c r="AC57" s="51"/>
-    </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="51"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="51"/>
-      <c r="O58" s="51"/>
-      <c r="P58" s="51"/>
-      <c r="Q58" s="51"/>
-      <c r="R58" s="51"/>
-      <c r="S58" s="51"/>
-      <c r="T58" s="51"/>
-      <c r="U58" s="51"/>
-      <c r="V58" s="51"/>
-      <c r="W58" s="51"/>
-      <c r="X58" s="51"/>
-      <c r="Y58" s="51"/>
-      <c r="Z58" s="51"/>
-      <c r="AA58" s="51"/>
-      <c r="AB58" s="51"/>
-      <c r="AC58" s="51"/>
-    </row>
-    <row r="59" spans="1:77" s="54" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="65" t="s">
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35"/>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="35"/>
+      <c r="AA56" s="35"/>
+      <c r="AB56" s="35"/>
+      <c r="AC56" s="35"/>
+    </row>
+    <row r="57" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A57" s="35"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="35"/>
+      <c r="AA57" s="35"/>
+      <c r="AB57" s="35"/>
+      <c r="AC57" s="35"/>
+    </row>
+    <row r="58" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A58" s="35"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AA58" s="35"/>
+      <c r="AB58" s="35"/>
+      <c r="AC58" s="35"/>
+    </row>
+    <row r="59" spans="1:77" s="38" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="37"/>
+      <c r="B59" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="53"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="53"/>
-      <c r="T59" s="53"/>
-      <c r="U59" s="53"/>
-      <c r="V59" s="53"/>
-      <c r="W59" s="53"/>
-      <c r="X59" s="53"/>
-      <c r="Y59" s="53"/>
-      <c r="Z59" s="53"/>
-      <c r="AA59" s="53"/>
-      <c r="AB59" s="53"/>
-      <c r="AC59" s="53"/>
-      <c r="AD59" s="53"/>
-      <c r="AE59" s="53"/>
-      <c r="AF59" s="53"/>
-      <c r="AG59" s="53"/>
-      <c r="AH59" s="53"/>
-      <c r="AI59" s="53"/>
-      <c r="AJ59" s="53"/>
-      <c r="AK59" s="53"/>
-      <c r="AL59" s="53"/>
-      <c r="AM59" s="53"/>
-      <c r="AN59" s="53"/>
-      <c r="AO59" s="53"/>
-      <c r="AP59" s="53"/>
-      <c r="AQ59" s="53"/>
-      <c r="AR59" s="53"/>
-      <c r="AS59" s="53"/>
-      <c r="AT59" s="53"/>
-      <c r="AU59" s="53"/>
-      <c r="AV59" s="53"/>
-      <c r="AW59" s="53"/>
-      <c r="AX59" s="53"/>
-      <c r="AY59" s="53"/>
-      <c r="AZ59" s="53"/>
-      <c r="BA59" s="53"/>
-      <c r="BB59" s="53"/>
-      <c r="BC59" s="53"/>
-      <c r="BD59" s="53"/>
-      <c r="BE59" s="53"/>
-      <c r="BF59" s="53"/>
-      <c r="BG59" s="53"/>
-      <c r="BH59" s="53"/>
-      <c r="BI59" s="53"/>
-      <c r="BJ59" s="53"/>
-      <c r="BK59" s="53"/>
-      <c r="BL59" s="53"/>
-      <c r="BM59" s="53"/>
-      <c r="BN59" s="53"/>
-      <c r="BO59" s="53"/>
-      <c r="BP59" s="53"/>
-      <c r="BQ59" s="53"/>
-      <c r="BR59" s="53"/>
-      <c r="BS59" s="53"/>
-      <c r="BT59" s="53"/>
-      <c r="BU59" s="53"/>
-      <c r="BV59" s="53"/>
-      <c r="BW59" s="53"/>
-      <c r="BX59" s="53"/>
-      <c r="BY59" s="53"/>
-    </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A60" s="51"/>
-      <c r="B60" s="67" t="s">
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37"/>
+      <c r="AA59" s="37"/>
+      <c r="AB59" s="37"/>
+      <c r="AC59" s="37"/>
+      <c r="AD59" s="37"/>
+      <c r="AE59" s="37"/>
+      <c r="AF59" s="37"/>
+      <c r="AG59" s="37"/>
+      <c r="AH59" s="37"/>
+      <c r="AI59" s="37"/>
+      <c r="AJ59" s="37"/>
+      <c r="AK59" s="37"/>
+      <c r="AL59" s="37"/>
+      <c r="AM59" s="37"/>
+      <c r="AN59" s="37"/>
+      <c r="AO59" s="37"/>
+      <c r="AP59" s="37"/>
+      <c r="AQ59" s="37"/>
+      <c r="AR59" s="37"/>
+      <c r="AS59" s="37"/>
+      <c r="AT59" s="37"/>
+      <c r="AU59" s="37"/>
+      <c r="AV59" s="37"/>
+      <c r="AW59" s="37"/>
+      <c r="AX59" s="37"/>
+      <c r="AY59" s="37"/>
+      <c r="AZ59" s="37"/>
+      <c r="BA59" s="37"/>
+      <c r="BB59" s="37"/>
+      <c r="BC59" s="37"/>
+      <c r="BD59" s="37"/>
+      <c r="BE59" s="37"/>
+      <c r="BF59" s="37"/>
+      <c r="BG59" s="37"/>
+      <c r="BH59" s="37"/>
+      <c r="BI59" s="37"/>
+      <c r="BJ59" s="37"/>
+      <c r="BK59" s="37"/>
+      <c r="BL59" s="37"/>
+      <c r="BM59" s="37"/>
+      <c r="BN59" s="37"/>
+      <c r="BO59" s="37"/>
+      <c r="BP59" s="37"/>
+      <c r="BQ59" s="37"/>
+      <c r="BR59" s="37"/>
+      <c r="BS59" s="37"/>
+      <c r="BT59" s="37"/>
+      <c r="BU59" s="37"/>
+      <c r="BV59" s="37"/>
+      <c r="BW59" s="37"/>
+      <c r="BX59" s="37"/>
+      <c r="BY59" s="37"/>
+    </row>
+    <row r="60" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A60" s="35"/>
+      <c r="B60" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="68"/>
-      <c r="D60" s="21" t="s">
+      <c r="C60" s="79"/>
+      <c r="D60" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="55" t="s">
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="58" t="s">
+      <c r="I60" s="85"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="86"/>
+      <c r="L60" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="58"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="59"/>
-      <c r="P60" s="51"/>
-      <c r="Q60" s="51"/>
-      <c r="R60" s="51"/>
-      <c r="S60" s="51"/>
-      <c r="T60" s="51"/>
-      <c r="U60" s="51"/>
-      <c r="V60" s="51"/>
-      <c r="W60" s="51"/>
-      <c r="X60" s="51"/>
-      <c r="Y60" s="51"/>
-      <c r="Z60" s="51"/>
-      <c r="AA60" s="51"/>
-      <c r="AB60" s="51"/>
-      <c r="AC60" s="51"/>
-    </row>
-    <row r="61" spans="1:77" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="51"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="84" t="s">
+      <c r="M60" s="87"/>
+      <c r="N60" s="87"/>
+      <c r="O60" s="88"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
+      <c r="AC60" s="35"/>
+    </row>
+    <row r="61" spans="1:77" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A61" s="35"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="84" t="s">
+      <c r="E61" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="84" t="s">
+      <c r="F61" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="84" t="s">
+      <c r="G61" s="56" t="s">
         <v>8</v>
       </c>
       <c r="H61" s="14" t="s">
@@ -9208,30 +9204,30 @@
       <c r="N61" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O61" s="25" t="s">
+      <c r="O61" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P61" s="51"/>
-      <c r="Q61" s="51"/>
-      <c r="R61" s="51"/>
-      <c r="S61" s="51"/>
-      <c r="T61" s="51"/>
-      <c r="U61" s="51"/>
-      <c r="V61" s="51"/>
-      <c r="W61" s="51"/>
-      <c r="X61" s="51"/>
-      <c r="Y61" s="51"/>
-      <c r="Z61" s="51"/>
-      <c r="AA61" s="51"/>
-      <c r="AB61" s="51"/>
-      <c r="AC61" s="51"/>
-    </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A62" s="51"/>
-      <c r="B62" s="82" t="s">
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
+      <c r="AC61" s="35"/>
+    </row>
+    <row r="62" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A62" s="35"/>
+      <c r="B62" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="63"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="5">
         <f>SUM(D4:D13)/10</f>
         <v>0.63383696675300571</v>
@@ -9260,7 +9256,7 @@
         <f t="shared" si="6"/>
         <v>1.2029143869876842</v>
       </c>
-      <c r="K62" s="46">
+      <c r="K62" s="30">
         <f t="shared" si="6"/>
         <v>65.659699821472003</v>
       </c>
@@ -9276,31 +9272,31 @@
         <f t="shared" si="6"/>
         <v>1.4651694416999779</v>
       </c>
-      <c r="O62" s="37">
+      <c r="O62" s="25">
         <f t="shared" si="6"/>
         <v>53.392863941192594</v>
       </c>
-      <c r="P62" s="51"/>
-      <c r="Q62" s="51"/>
-      <c r="R62" s="51"/>
-      <c r="S62" s="51"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="51"/>
-      <c r="V62" s="51"/>
-      <c r="W62" s="51"/>
-      <c r="X62" s="51"/>
-      <c r="Y62" s="51"/>
-      <c r="Z62" s="51"/>
-      <c r="AA62" s="51"/>
-      <c r="AB62" s="51"/>
-      <c r="AC62" s="51"/>
-    </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A63" s="51"/>
-      <c r="B63" s="82" t="s">
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="35"/>
+      <c r="AB62" s="35"/>
+      <c r="AC62" s="35"/>
+    </row>
+    <row r="63" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A63" s="35"/>
+      <c r="B63" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="63"/>
+      <c r="C63" s="42"/>
       <c r="D63" s="5">
         <f>SUM(D23:D32)/10</f>
         <v>0.59846009910106623</v>
@@ -9329,7 +9325,7 @@
         <f t="shared" si="7"/>
         <v>1.7556218028068522</v>
       </c>
-      <c r="K63" s="46">
+      <c r="K63" s="30">
         <f t="shared" si="7"/>
         <v>81.859956073760571</v>
       </c>
@@ -9345,31 +9341,31 @@
         <f t="shared" si="7"/>
         <v>1.2980337798595378</v>
       </c>
-      <c r="O63" s="37">
+      <c r="O63" s="25">
         <f t="shared" si="7"/>
         <v>63.759166789054689</v>
       </c>
-      <c r="P63" s="51"/>
-      <c r="Q63" s="51"/>
-      <c r="R63" s="51"/>
-      <c r="S63" s="51"/>
-      <c r="T63" s="51"/>
-      <c r="U63" s="51"/>
-      <c r="V63" s="51"/>
-      <c r="W63" s="51"/>
-      <c r="X63" s="51"/>
-      <c r="Y63" s="51"/>
-      <c r="Z63" s="51"/>
-      <c r="AA63" s="51"/>
-      <c r="AB63" s="51"/>
-      <c r="AC63" s="51"/>
-    </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A64" s="51"/>
-      <c r="B64" s="82" t="s">
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
+      <c r="AB63" s="35"/>
+      <c r="AC63" s="35"/>
+    </row>
+    <row r="64" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A64" s="35"/>
+      <c r="B64" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="63"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="5">
         <f>SUM(D42:D51)/10</f>
         <v>0.5709184497594828</v>
@@ -9398,7 +9394,7 @@
         <f t="shared" si="8"/>
         <v>1.9827748835086794</v>
       </c>
-      <c r="K64" s="46">
+      <c r="K64" s="30">
         <f t="shared" si="8"/>
         <v>103.15435771942104</v>
       </c>
@@ -9414,126 +9410,126 @@
         <f t="shared" si="8"/>
         <v>1.0975619673728922</v>
       </c>
-      <c r="O64" s="37">
+      <c r="O64" s="25">
         <f t="shared" si="8"/>
         <v>106.49652099609349</v>
       </c>
-      <c r="P64" s="51"/>
-      <c r="Q64" s="51"/>
-      <c r="R64" s="51"/>
-      <c r="S64" s="51"/>
-      <c r="T64" s="51"/>
-      <c r="U64" s="51"/>
-      <c r="V64" s="51"/>
-      <c r="W64" s="51"/>
-      <c r="X64" s="51"/>
-      <c r="Y64" s="51"/>
-      <c r="Z64" s="51"/>
-      <c r="AA64" s="51"/>
-      <c r="AB64" s="51"/>
-      <c r="AC64" s="51"/>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A65" s="51"/>
-      <c r="B65" s="62"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="51"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="51"/>
-      <c r="O65" s="51"/>
-      <c r="P65" s="51"/>
-      <c r="Q65" s="51"/>
-      <c r="R65" s="51"/>
-      <c r="S65" s="51"/>
-      <c r="T65" s="51"/>
-      <c r="U65" s="51"/>
-      <c r="V65" s="51"/>
-      <c r="W65" s="51"/>
-      <c r="X65" s="51"/>
-      <c r="Y65" s="51"/>
-      <c r="Z65" s="51"/>
-      <c r="AA65" s="51"/>
-      <c r="AB65" s="51"/>
-      <c r="AC65" s="51"/>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A66" s="51"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="51"/>
-      <c r="M66" s="51"/>
-      <c r="N66" s="51"/>
-      <c r="O66" s="51"/>
-      <c r="P66" s="51"/>
-      <c r="Q66" s="51"/>
-      <c r="R66" s="51"/>
-      <c r="S66" s="51"/>
-      <c r="T66" s="51"/>
-      <c r="U66" s="51"/>
-      <c r="V66" s="51"/>
-      <c r="W66" s="51"/>
-      <c r="X66" s="51"/>
-      <c r="Y66" s="51"/>
-      <c r="Z66" s="51"/>
-      <c r="AA66" s="51"/>
-      <c r="AB66" s="51"/>
-      <c r="AC66" s="51"/>
-    </row>
-    <row r="67" spans="1:29" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="83" t="s">
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
+      <c r="AC64" s="35"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A65" s="35"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+      <c r="AC65" s="35"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A66" s="35"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
+      <c r="AC66" s="35"/>
+    </row>
+    <row r="67" spans="1:29" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="62"/>
-    </row>
-    <row r="68" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="67" t="s">
+      <c r="C67" s="41"/>
+    </row>
+    <row r="68" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="68"/>
-      <c r="D68" s="71" t="s">
+      <c r="C68" s="79"/>
+      <c r="D68" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="72" t="s">
+      <c r="E68" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F68" s="73" t="s">
+      <c r="F68" s="46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:29" s="51" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B69" s="69"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="84" t="s">
+    <row r="69" spans="1:29" s="35" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="B69" s="80"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="56" t="s">
         <v>5</v>
       </c>
       <c r="E69" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="74" t="s">
+      <c r="F69" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="82" t="s">
+    <row r="70" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="63"/>
+      <c r="C70" s="42"/>
       <c r="D70" s="5">
         <f>SUM(D11:D20)/10</f>
         <v>0.25398041427135437</v>
@@ -9542,16 +9538,16 @@
         <f>SUM(H11:H20)/10</f>
         <v>0.27727931107246373</v>
       </c>
-      <c r="F70" s="75">
+      <c r="F70" s="48">
         <f>SUM(L11:L20)/10</f>
         <v>0.43213761949470486</v>
       </c>
     </row>
-    <row r="71" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="82" t="s">
+    <row r="71" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="63"/>
+      <c r="C71" s="42"/>
       <c r="D71" s="5">
         <f>SUM(D30:D39)/10</f>
         <v>0.22277102679014185</v>
@@ -9560,16 +9556,16 @@
         <f>SUM(H30:H39)/10</f>
         <v>0.23363716027303666</v>
       </c>
-      <c r="F71" s="75">
+      <c r="F71" s="48">
         <f>SUM(L30:L39)/10</f>
         <v>0.26930832419784523</v>
       </c>
     </row>
-    <row r="72" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="82" t="s">
+    <row r="72" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="63"/>
+      <c r="C72" s="42"/>
       <c r="D72" s="5">
         <f>SUM(D49:D58)/10</f>
         <v>0.1956086376309393</v>
@@ -9578,311 +9574,288 @@
         <f>SUM(H49:H58)/10</f>
         <v>0.20038270503282529</v>
       </c>
-      <c r="F72" s="75">
+      <c r="F72" s="48">
         <f>SUM(L49:L58)/10</f>
         <v>0.20580018490552893</v>
       </c>
     </row>
-    <row r="73" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="62"/>
-      <c r="C73" s="62"/>
-    </row>
-    <row r="74" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="62"/>
-      <c r="C74" s="62"/>
-    </row>
-    <row r="75" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="62"/>
-      <c r="C75" s="62"/>
-    </row>
-    <row r="76" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="62"/>
-      <c r="C76" s="62"/>
-    </row>
-    <row r="77" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-    </row>
-    <row r="78" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
-    </row>
-    <row r="79" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-    </row>
-    <row r="80" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="62"/>
-      <c r="C80" s="62"/>
-    </row>
-    <row r="81" spans="2:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="62"/>
-      <c r="C81" s="62"/>
-    </row>
-    <row r="82" spans="2:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="62"/>
-      <c r="C82" s="62"/>
-    </row>
-    <row r="83" spans="2:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="62"/>
-      <c r="C83" s="62"/>
-    </row>
-    <row r="84" spans="2:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="62"/>
-      <c r="C84" s="62"/>
-    </row>
-    <row r="85" spans="2:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="62"/>
-      <c r="C85" s="62"/>
-    </row>
-    <row r="86" spans="2:6" s="51" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="83" t="s">
+    <row r="73" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+    </row>
+    <row r="74" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+    </row>
+    <row r="75" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+    </row>
+    <row r="76" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+    </row>
+    <row r="77" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+    </row>
+    <row r="78" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+    </row>
+    <row r="79" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+    </row>
+    <row r="80" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+    </row>
+    <row r="81" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+    </row>
+    <row r="82" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+    </row>
+    <row r="83" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+    </row>
+    <row r="84" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+    </row>
+    <row r="85" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+    </row>
+    <row r="86" spans="2:6" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="62"/>
-    </row>
-    <row r="87" spans="2:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="67" t="s">
+      <c r="C86" s="41"/>
+    </row>
+    <row r="87" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="68"/>
-      <c r="D87" s="71" t="s">
+      <c r="C87" s="79"/>
+      <c r="D87" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E87" s="72" t="s">
+      <c r="E87" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F87" s="73" t="s">
+      <c r="F87" s="46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:6" s="51" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B88" s="69"/>
-      <c r="C88" s="70"/>
-      <c r="D88" s="84" t="s">
+    <row r="88" spans="2:6" s="35" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="B88" s="80"/>
+      <c r="C88" s="81"/>
+      <c r="D88" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="85" t="s">
+      <c r="E88" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="25" t="s">
+      <c r="F88" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="2:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="82" t="s">
+    <row r="89" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="63"/>
-      <c r="D89" s="77">
+      <c r="C89" s="42"/>
+      <c r="D89" s="50">
         <f>G62</f>
         <v>78.115576171874977</v>
       </c>
-      <c r="E89" s="46">
+      <c r="E89" s="30">
         <f>K62</f>
         <v>65.659699821472003</v>
       </c>
-      <c r="F89" s="37">
+      <c r="F89" s="25">
         <f>O62</f>
         <v>53.392863941192594</v>
       </c>
     </row>
-    <row r="90" spans="2:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="82" t="s">
+    <row r="90" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="63"/>
-      <c r="D90" s="77">
+      <c r="C90" s="42"/>
+      <c r="D90" s="50">
         <f t="shared" ref="D90:D91" si="9">G63</f>
         <v>77.087187194824182</v>
       </c>
-      <c r="E90" s="46">
+      <c r="E90" s="30">
         <f t="shared" ref="E90:E91" si="10">K63</f>
         <v>81.859956073760571</v>
       </c>
-      <c r="F90" s="37">
+      <c r="F90" s="25">
         <f t="shared" ref="F90:F91" si="11">O63</f>
         <v>63.759166789054689</v>
       </c>
     </row>
-    <row r="91" spans="2:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="82" t="s">
+    <row r="91" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="63"/>
-      <c r="D91" s="77">
+      <c r="C91" s="42"/>
+      <c r="D91" s="50">
         <f t="shared" si="9"/>
         <v>76.261495971679651</v>
       </c>
-      <c r="E91" s="46">
+      <c r="E91" s="30">
         <f t="shared" si="10"/>
         <v>103.15435771942104</v>
       </c>
-      <c r="F91" s="37">
+      <c r="F91" s="25">
         <f t="shared" si="11"/>
         <v>106.49652099609349</v>
       </c>
     </row>
-    <row r="92" spans="2:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="62"/>
-      <c r="C92" s="62"/>
-    </row>
-    <row r="93" spans="2:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="62"/>
-      <c r="C93" s="62"/>
-    </row>
-    <row r="94" spans="2:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="62"/>
-      <c r="C94" s="62"/>
-    </row>
-    <row r="95" spans="2:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="62"/>
-      <c r="C95" s="62"/>
-    </row>
-    <row r="96" spans="2:6" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="62"/>
-      <c r="C96" s="62"/>
-    </row>
-    <row r="97" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="62"/>
-      <c r="C97" s="62"/>
-    </row>
-    <row r="98" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="62"/>
-      <c r="C98" s="62"/>
-    </row>
-    <row r="99" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="62"/>
-      <c r="C99" s="62"/>
-    </row>
-    <row r="100" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="76"/>
-      <c r="C109" s="76"/>
-    </row>
-    <row r="110" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="86"/>
-    </row>
-    <row r="111" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="86"/>
-    </row>
-    <row r="112" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="86"/>
-    </row>
-    <row r="113" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="86"/>
-    </row>
-    <row r="114" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="86"/>
-    </row>
-    <row r="115" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="86"/>
-    </row>
-    <row r="116" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="76"/>
-      <c r="C116" s="76"/>
-    </row>
-    <row r="117" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="86"/>
-    </row>
-    <row r="118" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="86"/>
-    </row>
-    <row r="119" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="86"/>
-    </row>
-    <row r="120" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="86"/>
-    </row>
-    <row r="121" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="86"/>
-    </row>
-    <row r="122" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="86"/>
-    </row>
-    <row r="123" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="76"/>
-      <c r="C123" s="76"/>
-    </row>
-    <row r="124" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="86"/>
-    </row>
-    <row r="125" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="86"/>
-    </row>
-    <row r="126" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="86"/>
-    </row>
-    <row r="127" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="86"/>
-    </row>
-    <row r="128" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="86"/>
-    </row>
-    <row r="129" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="86"/>
-    </row>
-    <row r="130" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="62"/>
-      <c r="C130" s="62"/>
-    </row>
-    <row r="131" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="62"/>
-      <c r="C131" s="62"/>
-    </row>
-    <row r="132" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="62"/>
-      <c r="C132" s="62"/>
-    </row>
-    <row r="133" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="62"/>
-      <c r="C133" s="62"/>
-    </row>
-    <row r="134" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="62"/>
-      <c r="C134" s="62"/>
-    </row>
-    <row r="135" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="62"/>
-      <c r="C135" s="62"/>
-    </row>
-    <row r="136" spans="2:3" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="62"/>
-      <c r="C136" s="62"/>
+    <row r="92" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+    </row>
+    <row r="93" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+    </row>
+    <row r="94" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+    </row>
+    <row r="95" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+    </row>
+    <row r="96" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+    </row>
+    <row r="97" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+    </row>
+    <row r="98" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+    </row>
+    <row r="99" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+    </row>
+    <row r="100" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="49"/>
+      <c r="C109" s="49"/>
+    </row>
+    <row r="110" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="58"/>
+    </row>
+    <row r="111" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="58"/>
+    </row>
+    <row r="112" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="58"/>
+    </row>
+    <row r="113" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="58"/>
+    </row>
+    <row r="114" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="58"/>
+    </row>
+    <row r="115" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="58"/>
+    </row>
+    <row r="116" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="49"/>
+      <c r="C116" s="49"/>
+    </row>
+    <row r="117" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="58"/>
+    </row>
+    <row r="118" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="58"/>
+    </row>
+    <row r="119" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="58"/>
+    </row>
+    <row r="120" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="58"/>
+    </row>
+    <row r="121" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B121" s="58"/>
+    </row>
+    <row r="122" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="58"/>
+    </row>
+    <row r="123" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="49"/>
+      <c r="C123" s="49"/>
+    </row>
+    <row r="124" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="58"/>
+    </row>
+    <row r="125" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="58"/>
+    </row>
+    <row r="126" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="58"/>
+    </row>
+    <row r="127" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="58"/>
+    </row>
+    <row r="128" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="58"/>
+    </row>
+    <row r="129" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="58"/>
+    </row>
+    <row r="130" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="41"/>
+      <c r="C130" s="41"/>
+    </row>
+    <row r="131" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="41"/>
+      <c r="C131" s="41"/>
+    </row>
+    <row r="132" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="41"/>
+      <c r="C132" s="41"/>
+    </row>
+    <row r="133" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="41"/>
+      <c r="C133" s="41"/>
+    </row>
+    <row r="134" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="41"/>
+      <c r="C134" s="41"/>
+    </row>
+    <row r="135" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="41"/>
+      <c r="C135" s="41"/>
+    </row>
+    <row r="136" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="41"/>
+      <c r="C136" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="B87:C88"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="B60:C61"/>
-    <mergeCell ref="B54:C56"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B35:C37"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
@@ -9897,6 +9870,29 @@
     <mergeCell ref="B16:C18"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B35:C37"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="B60:C61"/>
+    <mergeCell ref="B54:C56"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="B87:C88"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H60:K60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9908,362 +9904,362 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BE3A7D-1FFF-4A18-B935-3609E29A7C8C}">
   <dimension ref="B1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="76" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="76"/>
-    <col min="5" max="5" width="9.7109375" style="76" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="76"/>
+    <col min="1" max="1" width="4.33203125" style="49" customWidth="1"/>
+    <col min="2" max="4" width="9.109375" style="49"/>
+    <col min="5" max="5" width="9.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="88" t="s">
+    <row r="1" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-    </row>
-    <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-    </row>
-    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="89"/>
-      <c r="C4" s="100" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+    </row>
+    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B4" s="61"/>
+      <c r="C4" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="86"/>
-    </row>
-    <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="97" t="s">
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="58"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B5" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="86"/>
-    </row>
-    <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="98">
+      <c r="G5" s="58"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B6" s="70">
         <v>-40</v>
       </c>
-      <c r="C6" s="90">
+      <c r="C6" s="62">
         <v>29</v>
       </c>
-      <c r="D6" s="92">
+      <c r="D6" s="64">
         <v>30</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="24">
         <v>31</v>
       </c>
-      <c r="F6" s="95">
-        <f>C6+D6+E6</f>
+      <c r="F6" s="67">
+        <f t="shared" ref="F6:F11" si="0">C6+D6+E6</f>
         <v>90</v>
       </c>
-      <c r="G6" s="86"/>
-    </row>
-    <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="98">
+      <c r="G6" s="58"/>
+    </row>
+    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B7" s="70">
         <v>-25</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="62">
         <v>33</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="64">
         <v>30</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="24">
         <v>29</v>
       </c>
-      <c r="F7" s="95">
-        <f>C7+D7+E7</f>
+      <c r="F7" s="67">
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="G7" s="86"/>
-    </row>
-    <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="98">
+      <c r="G7" s="58"/>
+    </row>
+    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B8" s="70">
         <v>-10</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="62">
         <v>41</v>
       </c>
-      <c r="D8" s="92">
+      <c r="D8" s="64">
         <v>32</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="24">
         <v>32</v>
       </c>
-      <c r="F8" s="95">
-        <f>C8+D8+E8</f>
+      <c r="F8" s="67">
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="G8" s="86"/>
-    </row>
-    <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="98">
+      <c r="G8" s="58"/>
+    </row>
+    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B9" s="70">
         <v>10</v>
       </c>
-      <c r="C9" s="90">
+      <c r="C9" s="62">
         <v>47</v>
       </c>
-      <c r="D9" s="92">
+      <c r="D9" s="64">
         <v>48</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="24">
         <v>54</v>
       </c>
-      <c r="F9" s="95">
-        <f>C9+D9+E9</f>
+      <c r="F9" s="67">
+        <f t="shared" si="0"/>
         <v>149</v>
       </c>
-      <c r="G9" s="86"/>
-    </row>
-    <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="98">
+      <c r="G9" s="58"/>
+    </row>
+    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B10" s="70">
         <v>25</v>
       </c>
-      <c r="C10" s="90">
+      <c r="C10" s="62">
         <v>47</v>
       </c>
-      <c r="D10" s="92">
+      <c r="D10" s="64">
         <v>58</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="24">
         <v>48</v>
       </c>
-      <c r="F10" s="95">
-        <f>C10+D10+E10</f>
+      <c r="F10" s="67">
+        <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="G10" s="86"/>
-    </row>
-    <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="99">
+      <c r="G10" s="58"/>
+    </row>
+    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B11" s="71">
         <v>40</v>
       </c>
-      <c r="C11" s="91">
+      <c r="C11" s="63">
         <v>43</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="65">
         <v>42</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="18">
         <v>46</v>
       </c>
-      <c r="F11" s="96">
-        <f>C11+D11+E11</f>
+      <c r="F11" s="68">
+        <f t="shared" si="0"/>
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F14" s="86"/>
-      <c r="G14" s="87"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="86"/>
-      <c r="G15" s="87"/>
-    </row>
-    <row r="16" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="88" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B16" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="87"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="86"/>
-      <c r="G17" s="87"/>
-    </row>
-    <row r="18" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="89"/>
-      <c r="C18" s="100" t="s">
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B18" s="61"/>
+      <c r="C18" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
-    </row>
-    <row r="19" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="97" t="s">
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B19" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="105" t="s">
+      <c r="E19" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="86"/>
-    </row>
-    <row r="20" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="98">
+      <c r="G19" s="58"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B20" s="70">
         <v>-40</v>
       </c>
-      <c r="C20" s="90">
+      <c r="C20" s="62">
         <v>10</v>
       </c>
-      <c r="D20" s="92">
+      <c r="D20" s="64">
         <v>9</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="24">
         <v>18</v>
       </c>
-      <c r="F20" s="95">
-        <f>C20+D20+E20</f>
+      <c r="F20" s="67">
+        <f t="shared" ref="F20:F25" si="1">C20+D20+E20</f>
         <v>37</v>
       </c>
-      <c r="G20" s="86"/>
-    </row>
-    <row r="21" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="98">
+      <c r="G20" s="58"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B21" s="70">
         <v>-25</v>
       </c>
-      <c r="C21" s="90">
+      <c r="C21" s="62">
         <v>14</v>
       </c>
-      <c r="D21" s="92">
+      <c r="D21" s="64">
         <v>15</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="24">
         <v>10</v>
       </c>
-      <c r="F21" s="95">
-        <f>C21+D21+E21</f>
+      <c r="F21" s="67">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="G21" s="86"/>
-    </row>
-    <row r="22" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="98">
+      <c r="G21" s="58"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B22" s="70">
         <v>-10</v>
       </c>
-      <c r="C22" s="90">
+      <c r="C22" s="62">
         <v>14</v>
       </c>
-      <c r="D22" s="92">
+      <c r="D22" s="64">
         <v>13</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="24">
         <v>13</v>
       </c>
-      <c r="F22" s="95">
-        <f>C22+D22+E22</f>
+      <c r="F22" s="67">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="G22" s="86"/>
-    </row>
-    <row r="23" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="98">
+      <c r="G22" s="58"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B23" s="70">
         <v>10</v>
       </c>
-      <c r="C23" s="90">
+      <c r="C23" s="62">
         <v>8</v>
       </c>
-      <c r="D23" s="92">
+      <c r="D23" s="64">
         <v>9</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="24">
         <v>7</v>
       </c>
-      <c r="F23" s="95">
-        <f>C23+D23+E23</f>
+      <c r="F23" s="67">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="G23" s="86"/>
-    </row>
-    <row r="24" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="98">
+      <c r="G23" s="58"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B24" s="70">
         <v>25</v>
       </c>
-      <c r="C24" s="90">
+      <c r="C24" s="62">
         <v>7</v>
       </c>
-      <c r="D24" s="92">
+      <c r="D24" s="64">
         <v>8</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="24">
         <v>6</v>
       </c>
-      <c r="F24" s="95">
-        <f>C24+D24+E24</f>
+      <c r="F24" s="67">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G24" s="86"/>
-    </row>
-    <row r="25" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="99">
+      <c r="G24" s="58"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B25" s="71">
         <v>40</v>
       </c>
-      <c r="C25" s="91">
+      <c r="C25" s="63">
         <v>7</v>
       </c>
-      <c r="D25" s="93">
+      <c r="D25" s="65">
         <v>6</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="18">
         <v>6</v>
       </c>
-      <c r="F25" s="96">
-        <f>C25+D25+E25</f>
+      <c r="F25" s="68">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G26" s="86"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="86"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="86"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="86"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="58"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="58"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G28" s="58"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G29" s="58"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Project Documents/Testing Data.xlsx
+++ b/Project Documents/Testing Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A83632-65B8-4426-B565-5760F6080C67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CD269E-C1C3-4C10-8277-CB194CD2E095}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Test Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Handedness Data" sheetId="5" r:id="rId2"/>
+    <sheet name="Age Influence Data" sheetId="6" r:id="rId2"/>
+    <sheet name="Handedness Data" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -94,6 +95,24 @@
   <si>
     <t>Left Handedness</t>
   </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Right Handed Users</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>Left Handed Users</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +152,19 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -346,6 +378,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -356,7 +401,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -503,38 +548,38 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -560,32 +605,38 @@
     <xf numFmtId="164" fontId="2" fillId="6" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -596,6 +647,111 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="4" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="5" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="6" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="4" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="5" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="5" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Diss - Dodge" xfId="4" xr:uid="{9FB837CF-23A5-4A52-849B-F411C7412E24}"/>
@@ -1859,6 +2015,1058 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average Response by Age</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Age Influence Data'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Response</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Age Influence Data'!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Age Influence Data'!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.87391904652235153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72989932033750626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57138832410176554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65021508269839756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53202209538883594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62011486954159167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85196834389792431</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65607441951327805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0460799977760302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89930228692118208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3901-4953-8E89-9F235CE2EBC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Age Influence Data'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shooting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Age Influence Data'!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Age Influence Data'!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.59847535689671771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57586556673049938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47696883479754099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53179824352264327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50130503376324909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60702514648437422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63451226552327433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54485948880513491</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70435740550359072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.835551043351491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3901-4953-8E89-9F235CE2EBC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Age Influence Data'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Driving</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Age Influence Data'!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Age Influence Data'!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.84804741541544404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62129662434260002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54393285512924139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56946056087811736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50410843888918533</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57390516996383634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84806225697199211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56236193577448457</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3710066044209768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79304898684692338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3901-4953-8E89-9F235CE2EBC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Age Influence Data'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dodging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Age Influence Data'!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Age Influence Data'!$G$5:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1752343672548926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99253576993941939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69326328237851431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84938644369443173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59065281351407328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67941429217656435</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0733305091985066</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86100183396021457</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0628759834035233</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0693068305651316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3901-4953-8E89-9F235CE2EBC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1242175151"/>
+        <c:axId val="1309666431"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1242175151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>AGE (Years)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309666431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1309666431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>RESPONSE</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> TIME (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1242175151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -2609,7 +3817,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3379,6 +4587,998 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Left Handed Responses</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Handedness Data'!$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Handedness Data'!$C$49:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70199999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C05C-47B0-A550-A865B566A66D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Handedness Data'!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Handedness Data'!$C$50:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C05C-47B0-A550-A865B566A66D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1303264271"/>
+        <c:axId val="1383296351"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1303264271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>USER</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1383296351"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1383296351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>RESPONSE TIME (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1303264271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Right Handed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Responses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Handedness Data'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Handedness Data'!$C$37:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED2B-400D-9CBA-7D9EE759203C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Handedness Data'!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Handedness Data'!$C$38:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ED2B-400D-9CBA-7D9EE759203C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1229322127"/>
+        <c:axId val="1383281791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1229322127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>USER</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1383281791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1383281791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>RESPONSE</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> TIME (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1229322127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3539,6 +5739,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
@@ -4616,7 +6936,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4627,7 +6947,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4650,18 +6970,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -4673,16 +6993,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4714,45 +7037,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4764,34 +7077,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4813,13 +7122,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4829,7 +7140,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4838,13 +7149,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4853,16 +7165,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4871,10 +7184,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -4890,15 +7203,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4917,16 +7236,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4935,16 +7255,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4953,16 +7274,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4983,7 +7305,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -4991,7 +7313,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5004,17 +7326,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5022,10 +7333,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -5046,7 +7357,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5055,14 +7366,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5076,26 +7387,27 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5109,17 +7421,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5127,8 +7428,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5647,6 +7954,1530 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5732,6 +9563,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>204786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F7EB7F-07CC-4638-A37F-B91D4A3B2917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -5797,6 +9669,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E299F83-CE67-46BA-92B6-CD08502C2B47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0071186C-F07A-4D27-9D39-6B575AC99BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6070,32 +10014,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY136"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:G41"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="43" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" customWidth="1"/>
-    <col min="12" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="1" customWidth="1"/>
-    <col min="16" max="29" width="9.109375" style="1"/>
-    <col min="30" max="77" width="9.109375" style="35"/>
-    <col min="78" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="43" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1" customWidth="1"/>
+    <col min="12" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
+    <col min="16" max="29" width="9.140625" style="1"/>
+    <col min="30" max="77" width="9.140625" style="35"/>
+    <col min="78" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35"/>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="99"/>
+      <c r="C1" s="97"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -6123,32 +10067,32 @@
       <c r="AB1" s="35"/>
       <c r="AC1" s="35"/>
     </row>
-    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="101" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="105"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="87"/>
       <c r="P2" s="35"/>
       <c r="Q2" s="35"/>
       <c r="R2" s="35"/>
@@ -6164,10 +10108,10 @@
       <c r="AB2" s="35"/>
       <c r="AC2" s="35"/>
     </row>
-    <row r="3" spans="1:29" ht="46.8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="35"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="75" t="s">
         <v>5</v>
       </c>
@@ -6219,7 +10163,7 @@
       <c r="AB3" s="35"/>
       <c r="AC3" s="35"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="51">
         <v>1</v>
@@ -6278,7 +10222,7 @@
       <c r="AB4" s="35"/>
       <c r="AC4" s="35"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="51">
         <v>2</v>
@@ -6337,7 +10281,7 @@
       <c r="AB5" s="35"/>
       <c r="AC5" s="35"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="51">
         <v>3</v>
@@ -6396,7 +10340,7 @@
       <c r="AB6" s="35"/>
       <c r="AC6" s="35"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="51">
         <v>4</v>
@@ -6455,7 +10399,7 @@
       <c r="AB7" s="35"/>
       <c r="AC7" s="35"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
       <c r="B8" s="51">
         <v>5</v>
@@ -6514,7 +10458,7 @@
       <c r="AB8" s="35"/>
       <c r="AC8" s="35"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
       <c r="B9" s="51">
         <v>6</v>
@@ -6573,7 +10517,7 @@
       <c r="AB9" s="35"/>
       <c r="AC9" s="35"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="35"/>
       <c r="B10" s="51">
         <v>7</v>
@@ -6632,7 +10576,7 @@
       <c r="AB10" s="35"/>
       <c r="AC10" s="35"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
       <c r="B11" s="51">
         <v>8</v>
@@ -6691,7 +10635,7 @@
       <c r="AB11" s="35"/>
       <c r="AC11" s="35"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="51">
         <v>9</v>
@@ -6750,7 +10694,7 @@
       <c r="AB12" s="35"/>
       <c r="AC12" s="35"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="51">
         <v>10</v>
@@ -6809,7 +10753,7 @@
       <c r="AB13" s="35"/>
       <c r="AC13" s="35"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="52"/>
       <c r="C14" s="39"/>
@@ -6840,7 +10784,7 @@
       <c r="AB14" s="35"/>
       <c r="AC14" s="35"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
       <c r="B15" s="53"/>
       <c r="C15" s="40"/>
@@ -6871,7 +10815,7 @@
       <c r="AB15" s="35"/>
       <c r="AC15" s="35"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
       <c r="B16" s="89" t="s">
         <v>9</v>
@@ -6889,12 +10833,12 @@
       <c r="I16" s="95"/>
       <c r="J16" s="95"/>
       <c r="K16" s="96"/>
-      <c r="L16" s="97" t="s">
+      <c r="L16" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="98"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="81"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
@@ -6910,7 +10854,7 @@
       <c r="AB16" s="35"/>
       <c r="AC16" s="35"/>
     </row>
-    <row r="17" spans="1:29" ht="46.8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="89"/>
       <c r="C17" s="90"/>
@@ -6965,7 +10909,7 @@
       <c r="AB17" s="35"/>
       <c r="AC17" s="35"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
       <c r="B18" s="91"/>
       <c r="C18" s="92"/>
@@ -7032,7 +10976,7 @@
       <c r="AB18" s="35"/>
       <c r="AC18" s="35"/>
     </row>
-    <row r="19" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -7063,11 +11007,11 @@
       <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
     </row>
-    <row r="20" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="99" t="s">
+    <row r="20" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="99"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
@@ -7095,32 +11039,32 @@
       <c r="AB20" s="35"/>
       <c r="AC20" s="35"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="100" t="s">
+      <c r="C21" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="D21" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="101" t="s">
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="104" t="s">
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="105"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="87"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
@@ -7136,12 +11080,12 @@
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
     </row>
-    <row r="22" spans="1:29" ht="46.8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="88" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="75" t="s">
@@ -7195,7 +11139,7 @@
       <c r="AB22" s="35"/>
       <c r="AC22" s="35"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="35"/>
       <c r="B23" s="51">
         <v>1</v>
@@ -7254,7 +11198,7 @@
       <c r="AB23" s="35"/>
       <c r="AC23" s="35"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="35"/>
       <c r="B24" s="51">
         <v>2</v>
@@ -7313,7 +11257,7 @@
       <c r="AB24" s="35"/>
       <c r="AC24" s="35"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="51">
         <v>3</v>
@@ -7372,7 +11316,7 @@
       <c r="AB25" s="35"/>
       <c r="AC25" s="35"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="51">
         <v>4</v>
@@ -7431,7 +11375,7 @@
       <c r="AB26" s="35"/>
       <c r="AC26" s="35"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="35"/>
       <c r="B27" s="51">
         <v>5</v>
@@ -7490,7 +11434,7 @@
       <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="35"/>
       <c r="B28" s="51">
         <v>6</v>
@@ -7549,7 +11493,7 @@
       <c r="AB28" s="35"/>
       <c r="AC28" s="35"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="51">
         <v>7</v>
@@ -7608,7 +11552,7 @@
       <c r="AB29" s="35"/>
       <c r="AC29" s="35"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="35"/>
       <c r="B30" s="51">
         <v>8</v>
@@ -7667,7 +11611,7 @@
       <c r="AB30" s="35"/>
       <c r="AC30" s="35"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="35"/>
       <c r="B31" s="51">
         <v>9</v>
@@ -7726,7 +11670,7 @@
       <c r="AB31" s="35"/>
       <c r="AC31" s="35"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="51">
         <v>10</v>
@@ -7785,7 +11729,7 @@
       <c r="AB32" s="35"/>
       <c r="AC32" s="35"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="35"/>
       <c r="B33" s="52"/>
       <c r="C33" s="39"/>
@@ -7816,7 +11760,7 @@
       <c r="AB33" s="35"/>
       <c r="AC33" s="35"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="35"/>
       <c r="B34" s="53"/>
       <c r="C34" s="40"/>
@@ -7847,7 +11791,7 @@
       <c r="AB34" s="35"/>
       <c r="AC34" s="35"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="35"/>
       <c r="B35" s="89" t="s">
         <v>9</v>
@@ -7865,12 +11809,12 @@
       <c r="I35" s="95"/>
       <c r="J35" s="95"/>
       <c r="K35" s="96"/>
-      <c r="L35" s="97" t="s">
+      <c r="L35" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="97"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="98"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="81"/>
       <c r="P35" s="35"/>
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
@@ -7886,7 +11830,7 @@
       <c r="AB35" s="35"/>
       <c r="AC35" s="35"/>
     </row>
-    <row r="36" spans="1:29" ht="46.8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36" s="35"/>
       <c r="B36" s="89"/>
       <c r="C36" s="90"/>
@@ -7941,7 +11885,7 @@
       <c r="AB36" s="35"/>
       <c r="AC36" s="35"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="35"/>
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
@@ -8008,7 +11952,7 @@
       <c r="AB37" s="35"/>
       <c r="AC37" s="35"/>
     </row>
-    <row r="38" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="35"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -8039,12 +11983,12 @@
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
     </row>
-    <row r="39" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="35"/>
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="99"/>
+      <c r="C39" s="97"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
@@ -8072,32 +12016,32 @@
       <c r="AB39" s="35"/>
       <c r="AC39" s="35"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="35"/>
-      <c r="B40" s="100" t="s">
+      <c r="B40" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="100" t="s">
+      <c r="C40" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="83" t="s">
+      <c r="D40" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="101" t="s">
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="104" t="s">
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="M40" s="104"/>
-      <c r="N40" s="104"/>
-      <c r="O40" s="105"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="86"/>
+      <c r="O40" s="87"/>
       <c r="P40" s="35"/>
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
@@ -8113,12 +12057,12 @@
       <c r="AB40" s="35"/>
       <c r="AC40" s="35"/>
     </row>
-    <row r="41" spans="1:29" ht="46.8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A41" s="35"/>
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="100" t="s">
+      <c r="C41" s="88" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="75" t="s">
@@ -8172,7 +12116,7 @@
       <c r="AB41" s="35"/>
       <c r="AC41" s="35"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
       <c r="B42" s="51">
         <v>1</v>
@@ -8231,7 +12175,7 @@
       <c r="AB42" s="35"/>
       <c r="AC42" s="35"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="35"/>
       <c r="B43" s="51">
         <v>2</v>
@@ -8290,7 +12234,7 @@
       <c r="AB43" s="35"/>
       <c r="AC43" s="35"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
       <c r="B44" s="51">
         <v>3</v>
@@ -8349,7 +12293,7 @@
       <c r="AB44" s="35"/>
       <c r="AC44" s="35"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
       <c r="B45" s="51">
         <v>4</v>
@@ -8408,7 +12352,7 @@
       <c r="AB45" s="35"/>
       <c r="AC45" s="35"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="35"/>
       <c r="B46" s="51">
         <v>5</v>
@@ -8467,7 +12411,7 @@
       <c r="AB46" s="35"/>
       <c r="AC46" s="35"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="35"/>
       <c r="B47" s="51">
         <v>6</v>
@@ -8526,7 +12470,7 @@
       <c r="AB47" s="35"/>
       <c r="AC47" s="35"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="35"/>
       <c r="B48" s="51">
         <v>7</v>
@@ -8585,7 +12529,7 @@
       <c r="AB48" s="35"/>
       <c r="AC48" s="35"/>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A49" s="35"/>
       <c r="B49" s="51">
         <v>8</v>
@@ -8644,7 +12588,7 @@
       <c r="AB49" s="35"/>
       <c r="AC49" s="35"/>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
       <c r="B50" s="51">
         <v>9</v>
@@ -8703,7 +12647,7 @@
       <c r="AB50" s="35"/>
       <c r="AC50" s="35"/>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="51">
         <v>10</v>
@@ -8762,7 +12706,7 @@
       <c r="AB51" s="35"/>
       <c r="AC51" s="35"/>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A52" s="35"/>
       <c r="B52" s="52"/>
       <c r="C52" s="39"/>
@@ -8793,7 +12737,7 @@
       <c r="AB52" s="35"/>
       <c r="AC52" s="35"/>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
       <c r="B53" s="53"/>
       <c r="C53" s="40"/>
@@ -8824,7 +12768,7 @@
       <c r="AB53" s="35"/>
       <c r="AC53" s="35"/>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="89" t="s">
         <v>9</v>
@@ -8842,12 +12786,12 @@
       <c r="I54" s="95"/>
       <c r="J54" s="95"/>
       <c r="K54" s="96"/>
-      <c r="L54" s="97" t="s">
+      <c r="L54" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="97"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="98"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="81"/>
       <c r="P54" s="35"/>
       <c r="Q54" s="35"/>
       <c r="R54" s="35"/>
@@ -8863,7 +12807,7 @@
       <c r="AB54" s="35"/>
       <c r="AC54" s="35"/>
     </row>
-    <row r="55" spans="1:77" ht="46.8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:77" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A55" s="35"/>
       <c r="B55" s="89"/>
       <c r="C55" s="90"/>
@@ -8918,7 +12862,7 @@
       <c r="AB55" s="35"/>
       <c r="AC55" s="35"/>
     </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A56" s="35"/>
       <c r="B56" s="91"/>
       <c r="C56" s="92"/>
@@ -8985,7 +12929,7 @@
       <c r="AB56" s="35"/>
       <c r="AC56" s="35"/>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A57" s="35"/>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
@@ -9016,7 +12960,7 @@
       <c r="AB57" s="35"/>
       <c r="AC57" s="35"/>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
@@ -9047,13 +12991,13 @@
       <c r="AB58" s="35"/>
       <c r="AC58" s="35"/>
     </row>
-    <row r="59" spans="1:77" s="38" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:77" s="38" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="37"/>
-      <c r="B59" s="82" t="s">
+      <c r="B59" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
@@ -9128,30 +13072,30 @@
       <c r="BX59" s="37"/>
       <c r="BY59" s="37"/>
     </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A60" s="35"/>
-      <c r="B60" s="78" t="s">
+      <c r="B60" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="79"/>
-      <c r="D60" s="83" t="s">
+      <c r="C60" s="101"/>
+      <c r="D60" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="84" t="s">
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="86"/>
-      <c r="L60" s="87" t="s">
+      <c r="I60" s="106"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="107"/>
+      <c r="L60" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="87"/>
-      <c r="N60" s="87"/>
-      <c r="O60" s="88"/>
+      <c r="M60" s="98"/>
+      <c r="N60" s="98"/>
+      <c r="O60" s="99"/>
       <c r="P60" s="35"/>
       <c r="Q60" s="35"/>
       <c r="R60" s="35"/>
@@ -9167,10 +13111,10 @@
       <c r="AB60" s="35"/>
       <c r="AC60" s="35"/>
     </row>
-    <row r="61" spans="1:77" ht="46.8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:77" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A61" s="35"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="81"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="103"/>
       <c r="D61" s="56" t="s">
         <v>5</v>
       </c>
@@ -9222,7 +13166,7 @@
       <c r="AB61" s="35"/>
       <c r="AC61" s="35"/>
     </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A62" s="35"/>
       <c r="B62" s="54" t="s">
         <v>10</v>
@@ -9291,7 +13235,7 @@
       <c r="AB62" s="35"/>
       <c r="AC62" s="35"/>
     </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A63" s="35"/>
       <c r="B63" s="54" t="s">
         <v>11</v>
@@ -9360,7 +13304,7 @@
       <c r="AB63" s="35"/>
       <c r="AC63" s="35"/>
     </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A64" s="35"/>
       <c r="B64" s="54" t="s">
         <v>12</v>
@@ -9429,7 +13373,7 @@
       <c r="AB64" s="35"/>
       <c r="AC64" s="35"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="35"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -9460,7 +13404,7 @@
       <c r="AB65" s="35"/>
       <c r="AC65" s="35"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="35"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -9491,17 +13435,17 @@
       <c r="AB66" s="35"/>
       <c r="AC66" s="35"/>
     </row>
-    <row r="67" spans="1:29" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:29" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="55" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="41"/>
     </row>
-    <row r="68" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="78" t="s">
+    <row r="68" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="79"/>
+      <c r="C68" s="101"/>
       <c r="D68" s="44" t="s">
         <v>1</v>
       </c>
@@ -9512,9 +13456,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:29" s="35" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="B69" s="80"/>
-      <c r="C69" s="81"/>
+    <row r="69" spans="1:29" s="35" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B69" s="102"/>
+      <c r="C69" s="103"/>
       <c r="D69" s="56" t="s">
         <v>5</v>
       </c>
@@ -9525,7 +13469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="54" t="s">
         <v>10</v>
       </c>
@@ -9543,7 +13487,7 @@
         <v>0.43213761949470486</v>
       </c>
     </row>
-    <row r="71" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="54" t="s">
         <v>11</v>
       </c>
@@ -9561,7 +13505,7 @@
         <v>0.26930832419784523</v>
       </c>
     </row>
-    <row r="72" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="54" t="s">
         <v>12</v>
       </c>
@@ -9579,69 +13523,69 @@
         <v>0.20580018490552893</v>
       </c>
     </row>
-    <row r="73" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
     </row>
-    <row r="74" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
     </row>
-    <row r="75" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
     </row>
-    <row r="76" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
     </row>
-    <row r="77" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
     </row>
-    <row r="78" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
     </row>
-    <row r="79" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
     </row>
-    <row r="80" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
     </row>
-    <row r="81" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="41"/>
       <c r="C81" s="41"/>
     </row>
-    <row r="82" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
     </row>
-    <row r="83" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
     </row>
-    <row r="84" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
     </row>
-    <row r="85" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
     </row>
-    <row r="86" spans="2:6" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" s="35" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C86" s="41"/>
     </row>
-    <row r="87" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="78" t="s">
+    <row r="87" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="79"/>
+      <c r="C87" s="101"/>
       <c r="D87" s="44" t="s">
         <v>1</v>
       </c>
@@ -9652,9 +13596,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:6" s="35" customFormat="1" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="B88" s="80"/>
-      <c r="C88" s="81"/>
+    <row r="88" spans="2:6" s="35" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B88" s="102"/>
+      <c r="C88" s="103"/>
       <c r="D88" s="56" t="s">
         <v>8</v>
       </c>
@@ -9665,7 +13609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="54" t="s">
         <v>10</v>
       </c>
@@ -9683,7 +13627,7 @@
         <v>53.392863941192594</v>
       </c>
     </row>
-    <row r="90" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="54" t="s">
         <v>11</v>
       </c>
@@ -9701,7 +13645,7 @@
         <v>63.759166789054689</v>
       </c>
     </row>
-    <row r="91" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="54" t="s">
         <v>12</v>
       </c>
@@ -9719,143 +13663,166 @@
         <v>106.49652099609349</v>
       </c>
     </row>
-    <row r="92" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
     </row>
-    <row r="93" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
     </row>
-    <row r="94" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
     </row>
-    <row r="95" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
     </row>
-    <row r="96" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="41"/>
       <c r="C96" s="41"/>
     </row>
-    <row r="97" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
     </row>
-    <row r="98" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="41"/>
       <c r="C98" s="41"/>
     </row>
-    <row r="99" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="41"/>
       <c r="C99" s="41"/>
     </row>
-    <row r="100" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B109" s="49"/>
       <c r="C109" s="49"/>
     </row>
-    <row r="110" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="58"/>
     </row>
-    <row r="111" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B111" s="58"/>
     </row>
-    <row r="112" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B112" s="58"/>
     </row>
-    <row r="113" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B113" s="58"/>
     </row>
-    <row r="114" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="58"/>
     </row>
-    <row r="115" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B115" s="58"/>
     </row>
-    <row r="116" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B116" s="49"/>
       <c r="C116" s="49"/>
     </row>
-    <row r="117" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B117" s="58"/>
     </row>
-    <row r="118" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B118" s="58"/>
     </row>
-    <row r="119" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B119" s="58"/>
     </row>
-    <row r="120" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B120" s="58"/>
     </row>
-    <row r="121" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B121" s="58"/>
     </row>
-    <row r="122" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="58"/>
     </row>
-    <row r="123" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B123" s="49"/>
       <c r="C123" s="49"/>
     </row>
-    <row r="124" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B124" s="58"/>
     </row>
-    <row r="125" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B125" s="58"/>
     </row>
-    <row r="126" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B126" s="58"/>
     </row>
-    <row r="127" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B127" s="58"/>
     </row>
-    <row r="128" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B128" s="58"/>
     </row>
-    <row r="129" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B129" s="58"/>
     </row>
-    <row r="130" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B130" s="41"/>
       <c r="C130" s="41"/>
     </row>
-    <row r="131" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B131" s="41"/>
       <c r="C131" s="41"/>
     </row>
-    <row r="132" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B132" s="41"/>
       <c r="C132" s="41"/>
     </row>
-    <row r="133" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
     </row>
-    <row r="134" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B134" s="41"/>
       <c r="C134" s="41"/>
     </row>
-    <row r="135" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B135" s="41"/>
       <c r="C135" s="41"/>
     </row>
-    <row r="136" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B136" s="41"/>
       <c r="C136" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="B87:C88"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="B60:C61"/>
+    <mergeCell ref="B54:C56"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B35:C37"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
@@ -9870,29 +13837,6 @@
     <mergeCell ref="B16:C18"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B35:C37"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="B60:C61"/>
-    <mergeCell ref="B54:C56"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="B87:C88"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="H60:K60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9901,23 +13845,850 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BE3A7D-1FFF-4A18-B935-3609E29A7C8C}">
-  <dimension ref="B1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34444876-9C46-46F4-9F6A-E6C5D8B86AC7}">
+  <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="49" customWidth="1"/>
-    <col min="2" max="4" width="9.109375" style="49"/>
-    <col min="5" max="5" width="9.6640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="49"/>
+    <col min="1" max="1" width="3.140625" style="49" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="49"/>
+    <col min="4" max="4" width="10.7109375" style="49" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="49" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="49" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="49" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="49" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="49" customWidth="1"/>
+    <col min="12" max="14" width="10.85546875" style="49" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="49" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="49"/>
+    <col min="17" max="17" width="11.28515625" style="49" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="49" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" style="49" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D2" s="35"/>
+      <c r="I2" s="141" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="141"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="141" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="141"/>
+      <c r="Q2" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="78"/>
+    </row>
+    <row r="3" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="126"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="126" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="152" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="153" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="154" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="155"/>
+      <c r="M3" s="152" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="153" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="154" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="152" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="156" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="152" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="153" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="154" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="79"/>
+      <c r="C5" s="136">
+        <v>19</v>
+      </c>
+      <c r="D5" s="157">
+        <f>SUM(E5,F5,G5)/3</f>
+        <v>0.87391904652235153</v>
+      </c>
+      <c r="E5" s="131">
+        <f>SUM(I5,M5,Q5)/3</f>
+        <v>0.59847535689671771</v>
+      </c>
+      <c r="F5" s="8">
+        <f>SUM(J5,N5,R5)/3</f>
+        <v>0.84804741541544404</v>
+      </c>
+      <c r="G5" s="123">
+        <f>SUM(K5,O5,S5)/3</f>
+        <v>1.1752343672548926</v>
+      </c>
+      <c r="I5" s="131">
+        <v>0.58643275499343805</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.94429296255111606</v>
+      </c>
+      <c r="K5" s="123">
+        <v>2.005061</v>
+      </c>
+      <c r="M5" s="131">
+        <v>0.67103046178817705</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1.1913731098175</v>
+      </c>
+      <c r="O5" s="123">
+        <v>0.93426424264907804</v>
+      </c>
+      <c r="Q5" s="131">
+        <v>0.53796285390853804</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0.40847617387771601</v>
+      </c>
+      <c r="S5" s="123">
+        <v>0.58637785911560003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="79"/>
+      <c r="C6" s="79">
+        <v>22</v>
+      </c>
+      <c r="D6" s="157">
+        <f t="shared" ref="D6:D14" si="0">SUM(E6,F6,G6)/3</f>
+        <v>0.72989932033750626</v>
+      </c>
+      <c r="E6" s="131">
+        <f>SUM(I6,M6,Q6)/3</f>
+        <v>0.57586556673049938</v>
+      </c>
+      <c r="F6" s="8">
+        <f>SUM(J6,N6,R6)/3</f>
+        <v>0.62129662434260002</v>
+      </c>
+      <c r="G6" s="123">
+        <f>SUM(K6,O6,S6)/3</f>
+        <v>0.99253576993941939</v>
+      </c>
+      <c r="I6" s="132">
+        <v>0.56387811899185203</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.67400765419006303</v>
+      </c>
+      <c r="K6" s="48">
+        <v>0.91046917438507102</v>
+      </c>
+      <c r="M6" s="132">
+        <v>0.55960267782211304</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.58392965793609597</v>
+      </c>
+      <c r="O6" s="48">
+        <v>1.0857466459274201</v>
+      </c>
+      <c r="Q6" s="132">
+        <v>0.60411590337753296</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.60595256090164096</v>
+      </c>
+      <c r="S6" s="48">
+        <v>0.98139148950576705</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="79"/>
+      <c r="C7" s="79">
+        <v>22</v>
+      </c>
+      <c r="D7" s="157">
+        <f t="shared" si="0"/>
+        <v>0.57138832410176554</v>
+      </c>
+      <c r="E7" s="131">
+        <f>SUM(I7,M7,Q7)/3</f>
+        <v>0.47696883479754099</v>
+      </c>
+      <c r="F7" s="8">
+        <f>SUM(J7,N7,R7)/3</f>
+        <v>0.54393285512924139</v>
+      </c>
+      <c r="G7" s="123">
+        <f>SUM(K7,O7,S7)/3</f>
+        <v>0.69326328237851431</v>
+      </c>
+      <c r="I7" s="132">
+        <v>0.47647303342819203</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.54770195484161299</v>
+      </c>
+      <c r="K7" s="124">
+        <v>0.84890270233154297</v>
+      </c>
+      <c r="M7" s="132">
+        <v>0.47752830386161799</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.54194009304046598</v>
+      </c>
+      <c r="O7" s="124">
+        <v>0.81165289878845204</v>
+      </c>
+      <c r="Q7" s="132">
+        <v>0.476905167102813</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.54215651750564497</v>
+      </c>
+      <c r="S7" s="124">
+        <v>0.41923424601554798</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="79"/>
+      <c r="C8" s="79">
+        <v>22</v>
+      </c>
+      <c r="D8" s="157">
+        <f t="shared" si="0"/>
+        <v>0.65021508269839756</v>
+      </c>
+      <c r="E8" s="131">
+        <f>SUM(I8,M8,Q8)/3</f>
+        <v>0.53179824352264327</v>
+      </c>
+      <c r="F8" s="8">
+        <f>SUM(J8,N8,R8)/3</f>
+        <v>0.56946056087811736</v>
+      </c>
+      <c r="G8" s="123">
+        <f>SUM(K8,O8,S8)/3</f>
+        <v>0.84938644369443173</v>
+      </c>
+      <c r="I8" s="132">
+        <v>0.62321782112121504</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.65149915218353205</v>
+      </c>
+      <c r="K8" s="48">
+        <v>1.5088682174682599</v>
+      </c>
+      <c r="M8" s="132">
+        <v>0.52926480770110995</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.623729467391967</v>
+      </c>
+      <c r="O8" s="48">
+        <v>0.58283084630966098</v>
+      </c>
+      <c r="Q8" s="132">
+        <v>0.44291210174560502</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0.43315306305885298</v>
+      </c>
+      <c r="S8" s="48">
+        <v>0.45646026730537398</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="79"/>
+      <c r="C9" s="79">
+        <v>24</v>
+      </c>
+      <c r="D9" s="157">
+        <f t="shared" si="0"/>
+        <v>0.53202209538883594</v>
+      </c>
+      <c r="E9" s="131">
+        <f>SUM(I9,M9,Q9)/3</f>
+        <v>0.50130503376324909</v>
+      </c>
+      <c r="F9" s="8">
+        <f>SUM(J9,N9,R9)/3</f>
+        <v>0.50410843888918533</v>
+      </c>
+      <c r="G9" s="123">
+        <f>SUM(K9,O9,S9)/3</f>
+        <v>0.59065281351407328</v>
+      </c>
+      <c r="I9" s="132">
+        <v>0.53630238771438499</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.55744111537933305</v>
+      </c>
+      <c r="K9" s="48">
+        <v>0.79987239837646396</v>
+      </c>
+      <c r="M9" s="132">
+        <v>0.50569486618041903</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.39806762337684598</v>
+      </c>
+      <c r="O9" s="48">
+        <v>0.57032418251037598</v>
+      </c>
+      <c r="Q9" s="132">
+        <v>0.46191784739494302</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0.55681657791137695</v>
+      </c>
+      <c r="S9" s="48">
+        <v>0.40176185965538003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="79"/>
+      <c r="C10" s="79">
+        <v>31</v>
+      </c>
+      <c r="D10" s="157">
+        <f t="shared" si="0"/>
+        <v>0.62011486954159167</v>
+      </c>
+      <c r="E10" s="131">
+        <f>SUM(I10,M10,Q10)/3</f>
+        <v>0.60702514648437422</v>
+      </c>
+      <c r="F10" s="8">
+        <f>SUM(J10,N10,R10)/3</f>
+        <v>0.57390516996383634</v>
+      </c>
+      <c r="G10" s="123">
+        <f>SUM(K10,O10,S10)/3</f>
+        <v>0.67941429217656435</v>
+      </c>
+      <c r="I10" s="133">
+        <v>0.74644696712493797</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.803813517093658</v>
+      </c>
+      <c r="K10" s="48">
+        <v>0.87240725755691495</v>
+      </c>
+      <c r="M10" s="133">
+        <v>0.59429049491882302</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0.52564060688018799</v>
+      </c>
+      <c r="O10" s="48">
+        <v>0.63917016983032204</v>
+      </c>
+      <c r="Q10" s="133">
+        <v>0.48033797740936202</v>
+      </c>
+      <c r="R10" s="10">
+        <v>0.39226138591766302</v>
+      </c>
+      <c r="S10" s="48">
+        <v>0.52666544914245605</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="79"/>
+      <c r="C11" s="79">
+        <v>53</v>
+      </c>
+      <c r="D11" s="157">
+        <f t="shared" si="0"/>
+        <v>0.85196834389792431</v>
+      </c>
+      <c r="E11" s="131">
+        <f>SUM(I11,M11,Q11)/3</f>
+        <v>0.63451226552327433</v>
+      </c>
+      <c r="F11" s="8">
+        <f>SUM(J11,N11,R11)/3</f>
+        <v>0.84806225697199211</v>
+      </c>
+      <c r="G11" s="123">
+        <f>SUM(K11,O11,S11)/3</f>
+        <v>1.0733305091985066</v>
+      </c>
+      <c r="I11" s="132">
+        <v>0.628376424312591</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.69329631328582697</v>
+      </c>
+      <c r="K11" s="123">
+        <v>1.2028920000000001</v>
+      </c>
+      <c r="M11" s="132">
+        <v>0.72974103689193703</v>
+      </c>
+      <c r="N11" s="9">
+        <v>1.1526653766632</v>
+      </c>
+      <c r="O11" s="123">
+        <v>1.2151479999999999</v>
+      </c>
+      <c r="Q11" s="132">
+        <v>0.54541933536529497</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0.69822508096694902</v>
+      </c>
+      <c r="S11" s="123">
+        <v>0.80195152759552002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="79"/>
+      <c r="C12" s="79">
+        <v>54</v>
+      </c>
+      <c r="D12" s="157">
+        <f t="shared" si="0"/>
+        <v>0.65607441951327805</v>
+      </c>
+      <c r="E12" s="131">
+        <f>SUM(I12,M12,Q12)/3</f>
+        <v>0.54485948880513491</v>
+      </c>
+      <c r="F12" s="8">
+        <f>SUM(J12,N12,R12)/3</f>
+        <v>0.56236193577448457</v>
+      </c>
+      <c r="G12" s="123">
+        <f>SUM(K12,O12,S12)/3</f>
+        <v>0.86100183396021457</v>
+      </c>
+      <c r="I12" s="133">
+        <v>0.56449794769287098</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0.62940359115600497</v>
+      </c>
+      <c r="K12" s="125">
+        <v>1.1193630695343</v>
+      </c>
+      <c r="M12" s="133">
+        <v>0.52009832859039296</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0.56906914710998502</v>
+      </c>
+      <c r="O12" s="125">
+        <v>1.00789</v>
+      </c>
+      <c r="Q12" s="133">
+        <v>0.549982190132141</v>
+      </c>
+      <c r="R12" s="10">
+        <v>0.48861306905746399</v>
+      </c>
+      <c r="S12" s="125">
+        <v>0.45575243234634399</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="79"/>
+      <c r="C13" s="79">
+        <v>79</v>
+      </c>
+      <c r="D13" s="157">
+        <f t="shared" si="0"/>
+        <v>1.0460799977760302</v>
+      </c>
+      <c r="E13" s="131">
+        <f>SUM(I13,M13,Q13)/3</f>
+        <v>0.70435740550359072</v>
+      </c>
+      <c r="F13" s="8">
+        <f>SUM(J13,N13,R13)/3</f>
+        <v>1.3710066044209768</v>
+      </c>
+      <c r="G13" s="123">
+        <f>SUM(K13,O13,S13)/3</f>
+        <v>1.0628759834035233</v>
+      </c>
+      <c r="I13" s="132">
+        <v>0.75044804811477706</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1.373937</v>
+      </c>
+      <c r="K13" s="48">
+        <v>1.2305221557617201</v>
+      </c>
+      <c r="M13" s="132">
+        <v>0.67672604322433405</v>
+      </c>
+      <c r="N13" s="9">
+        <v>1.7097029685974099</v>
+      </c>
+      <c r="O13" s="48">
+        <v>0.95752000000000004</v>
+      </c>
+      <c r="Q13" s="132">
+        <v>0.68589812517166104</v>
+      </c>
+      <c r="R13" s="9">
+        <v>1.02937984466552</v>
+      </c>
+      <c r="S13" s="48">
+        <v>1.0005857944488501</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="79"/>
+      <c r="C14" s="79">
+        <v>81</v>
+      </c>
+      <c r="D14" s="157">
+        <f t="shared" si="0"/>
+        <v>0.89930228692118208</v>
+      </c>
+      <c r="E14" s="131">
+        <f>SUM(I14,M14,Q14)/3</f>
+        <v>0.835551043351491</v>
+      </c>
+      <c r="F14" s="8">
+        <f>SUM(J14,N14,R14)/3</f>
+        <v>0.79304898684692338</v>
+      </c>
+      <c r="G14" s="123">
+        <f>SUM(K14,O14,S14)/3</f>
+        <v>1.0693068305651316</v>
+      </c>
+      <c r="I14" s="133">
+        <v>0.86229616403579701</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="K14" s="125">
+        <v>0.903925240039825</v>
+      </c>
+      <c r="M14" s="133">
+        <v>0.72062397003173795</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0.593221</v>
+      </c>
+      <c r="O14" s="125">
+        <v>1.2030334472656199</v>
+      </c>
+      <c r="Q14" s="133">
+        <v>0.92373299598693803</v>
+      </c>
+      <c r="R14" s="10">
+        <v>1.0609259605407699</v>
+      </c>
+      <c r="S14" s="125">
+        <v>1.1009618043899501</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="52"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
+      <c r="Q15" s="116"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="32"/>
+    </row>
+    <row r="16" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="143"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="34"/>
+    </row>
+    <row r="17" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="147"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="130" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="130" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="134" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="134" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="148"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="150"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="5">
+        <f t="shared" ref="E19:F19" si="1">SUM(E5:E14)/10</f>
+        <v>0.60107183853785151</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.7235230848632801</v>
+      </c>
+      <c r="G19" s="48">
+        <f t="shared" ref="G19" si="2">SUM(G5:G14)/10</f>
+        <v>0.90470021260852707</v>
+      </c>
+      <c r="I19" s="132">
+        <f t="shared" ref="I19:J19" si="3">SUM(I5:I14)/10</f>
+        <v>0.6338369667530056</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="3"/>
+        <v>0.76003932606811464</v>
+      </c>
+      <c r="K19" s="48">
+        <f t="shared" ref="K19" si="4">SUM(K5:K14)/10</f>
+        <v>1.1402283215454099</v>
+      </c>
+      <c r="M19" s="132">
+        <f t="shared" ref="M19:O19" si="5">SUM(M5:M14)/10</f>
+        <v>0.59846009910106623</v>
+      </c>
+      <c r="N19" s="9">
+        <f t="shared" si="5"/>
+        <v>0.78893390508136585</v>
+      </c>
+      <c r="O19" s="48">
+        <f t="shared" si="5"/>
+        <v>0.90075804332809284</v>
+      </c>
+      <c r="Q19" s="132">
+        <f t="shared" ref="Q19:S19" si="6">SUM(Q5:Q14)/10</f>
+        <v>0.57091844975948303</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" si="6"/>
+        <v>0.6215960234403598</v>
+      </c>
+      <c r="S19" s="48">
+        <f t="shared" si="6"/>
+        <v>0.67311427295207893</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="39" spans="7:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+    </row>
+    <row r="40" spans="7:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5:R14">
+    <sortCondition ref="C5"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="B17:C19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BE3A7D-1FFF-4A18-B935-3609E29A7C8C}">
+  <dimension ref="B1:U90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="49" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="49"/>
+    <col min="5" max="5" width="9.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="60" t="s">
         <v>17</v>
       </c>
@@ -9926,24 +14697,24 @@
       <c r="E2" s="60"/>
       <c r="F2" s="60"/>
     </row>
-    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
       <c r="E3" s="60"/>
       <c r="F3" s="60"/>
     </row>
-    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="61"/>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="58"/>
     </row>
-    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="69" t="s">
         <v>18</v>
       </c>
@@ -9961,7 +14732,7 @@
       </c>
       <c r="G5" s="58"/>
     </row>
-    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="70">
         <v>-40</v>
       </c>
@@ -9980,7 +14751,7 @@
       </c>
       <c r="G6" s="58"/>
     </row>
-    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="70">
         <v>-25</v>
       </c>
@@ -9999,7 +14770,7 @@
       </c>
       <c r="G7" s="58"/>
     </row>
-    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="70">
         <v>-10</v>
       </c>
@@ -10018,7 +14789,7 @@
       </c>
       <c r="G8" s="58"/>
     </row>
-    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="70">
         <v>10</v>
       </c>
@@ -10037,7 +14808,7 @@
       </c>
       <c r="G9" s="58"/>
     </row>
-    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="70">
         <v>25</v>
       </c>
@@ -10056,7 +14827,7 @@
       </c>
       <c r="G10" s="58"/>
     </row>
-    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="71">
         <v>40</v>
       </c>
@@ -10074,43 +14845,43 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F12" s="58"/>
       <c r="G12" s="59"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F13" s="58"/>
       <c r="G13" s="59"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F14" s="58"/>
       <c r="G14" s="59"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F15" s="58"/>
       <c r="G15" s="59"/>
     </row>
-    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="60" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="58"/>
       <c r="G16" s="59"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F17" s="58"/>
       <c r="G17" s="59"/>
     </row>
-    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="61"/>
-      <c r="C18" s="106" t="s">
+      <c r="C18" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="108"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="110"/>
+    </row>
+    <row r="19" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="69" t="s">
         <v>18</v>
       </c>
@@ -10128,7 +14899,7 @@
       </c>
       <c r="G19" s="58"/>
     </row>
-    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="70">
         <v>-40</v>
       </c>
@@ -10147,7 +14918,7 @@
       </c>
       <c r="G20" s="58"/>
     </row>
-    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="70">
         <v>-25</v>
       </c>
@@ -10166,7 +14937,7 @@
       </c>
       <c r="G21" s="58"/>
     </row>
-    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" s="70">
         <v>-10</v>
       </c>
@@ -10185,7 +14956,7 @@
       </c>
       <c r="G22" s="58"/>
     </row>
-    <row r="23" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="70">
         <v>10</v>
       </c>
@@ -10204,7 +14975,7 @@
       </c>
       <c r="G23" s="58"/>
     </row>
-    <row r="24" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="70">
         <v>25</v>
       </c>
@@ -10223,7 +14994,7 @@
       </c>
       <c r="G24" s="58"/>
     </row>
-    <row r="25" spans="2:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="71">
         <v>40</v>
       </c>
@@ -10241,28 +15012,2015 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G26" s="58"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G27" s="58"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G28" s="58"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G29" s="58"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F30" s="58"/>
       <c r="G30" s="58"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="160"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="161"/>
+      <c r="M31" s="161"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="161"/>
+      <c r="Q31" s="161"/>
+      <c r="R31" s="161"/>
+      <c r="S31" s="161"/>
+      <c r="T31" s="161"/>
+      <c r="U31" s="161"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="160"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="161"/>
+      <c r="R32" s="161"/>
+      <c r="S32" s="161"/>
+      <c r="T32" s="161"/>
+      <c r="U32" s="161"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="158"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="158"/>
+      <c r="Q33" s="158"/>
+      <c r="R33" s="159"/>
+      <c r="S33" s="158"/>
+      <c r="T33" s="158"/>
+      <c r="U33" s="158"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="158">
+        <v>0.66811519861221302</v>
+      </c>
+      <c r="C34" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="158">
+        <v>0.60136985778808505</v>
+      </c>
+      <c r="E34" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="158">
+        <v>0.50119042396545399</v>
+      </c>
+      <c r="G34" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="158">
+        <v>0.75112819671630804</v>
+      </c>
+      <c r="I34" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="158">
+        <v>0.63488322496414096</v>
+      </c>
+      <c r="K34" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="158">
+        <v>0.81876337528228704</v>
+      </c>
+      <c r="M34" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="158">
+        <v>0.90199285745620705</v>
+      </c>
+      <c r="O34" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" s="158">
+        <v>0.50125247240066495</v>
+      </c>
+      <c r="Q34" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" s="158">
+        <v>0.81850540637969904</v>
+      </c>
+      <c r="S34" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T34" s="158">
+        <v>0.75168544054031305</v>
+      </c>
+      <c r="U34" s="158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B35" s="60"/>
+      <c r="C35" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="120"/>
+    </row>
+    <row r="36" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="165">
+        <v>1</v>
+      </c>
+      <c r="D36" s="166">
+        <v>2</v>
+      </c>
+      <c r="E36" s="166">
+        <v>3</v>
+      </c>
+      <c r="F36" s="166">
+        <v>4</v>
+      </c>
+      <c r="G36" s="166">
+        <v>5</v>
+      </c>
+      <c r="H36" s="166">
+        <v>6</v>
+      </c>
+      <c r="I36" s="166">
+        <v>7</v>
+      </c>
+      <c r="J36" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B37" s="162" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="115">
+        <v>0.77</v>
+      </c>
+      <c r="D37" s="23">
+        <v>0.62</v>
+      </c>
+      <c r="E37" s="23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F37" s="23">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="G37" s="23">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="H37" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="I37" s="23">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="J37" s="114">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B38" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="113">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="J38" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B47" s="60"/>
+      <c r="C47" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="120"/>
+    </row>
+    <row r="48" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="163" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="167">
+        <v>1</v>
+      </c>
+      <c r="D48" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B49" s="164" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="115">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D49" s="114">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B50" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="113">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D50" s="25">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B63" s="158">
+        <v>0.85186386108398404</v>
+      </c>
+      <c r="C63" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="158">
+        <v>0.56791341304778997</v>
+      </c>
+      <c r="E63" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="158">
+        <v>0.51783388853073098</v>
+      </c>
+      <c r="G63" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="158">
+        <v>0.63472914695739702</v>
+      </c>
+      <c r="I63" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="158">
+        <v>0.96921932697296098</v>
+      </c>
+      <c r="K63" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" s="158">
+        <v>0.50127387046813898</v>
+      </c>
+      <c r="M63" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63" s="158">
+        <v>1.01890444755554</v>
+      </c>
+      <c r="O63" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="P63" s="158">
+        <v>1.23623859882354</v>
+      </c>
+      <c r="Q63" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="R63" s="158">
+        <v>0.68506044149398804</v>
+      </c>
+      <c r="S63" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T63" s="158">
+        <v>0.53452533483505205</v>
+      </c>
+      <c r="U63" s="158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B64" s="158">
+        <v>0.734946548938751</v>
+      </c>
+      <c r="C64" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="158">
+        <v>0.68495023250579801</v>
+      </c>
+      <c r="E64" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="158">
+        <v>0.48451524972915599</v>
+      </c>
+      <c r="G64" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="158">
+        <v>0.66813933849334695</v>
+      </c>
+      <c r="I64" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="158">
+        <v>0.384314835071563</v>
+      </c>
+      <c r="K64" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="158">
+        <v>0.50123852491378695</v>
+      </c>
+      <c r="M64" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="158">
+        <v>0.46774655580520602</v>
+      </c>
+      <c r="O64" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="P64" s="158">
+        <v>0.434334397315979</v>
+      </c>
+      <c r="Q64" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="R64" s="158">
+        <v>0.88529598712921098</v>
+      </c>
+      <c r="S64" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T64" s="158">
+        <v>0.75171130895614602</v>
+      </c>
+      <c r="U64" s="158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B65" s="158">
+        <v>0.73494511842727595</v>
+      </c>
+      <c r="C65" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="158">
+        <v>0.56805092096328702</v>
+      </c>
+      <c r="E65" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="158">
+        <v>0.55133754014968805</v>
+      </c>
+      <c r="G65" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="158">
+        <v>0.70160263776779097</v>
+      </c>
+      <c r="I65" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="158">
+        <v>0.40103107690811102</v>
+      </c>
+      <c r="K65" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" s="158">
+        <v>0.40094467997550898</v>
+      </c>
+      <c r="M65" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" s="158">
+        <v>0.60149657726287797</v>
+      </c>
+      <c r="O65" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="P65" s="158">
+        <v>0.50122755765914895</v>
+      </c>
+      <c r="Q65" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="R65" s="158">
+        <v>0.83509600162506104</v>
+      </c>
+      <c r="S65" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T65" s="158">
+        <v>0.65141272544860795</v>
+      </c>
+      <c r="U65" s="158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B66" s="158">
+        <v>0.73485833406448298</v>
+      </c>
+      <c r="C66" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="158">
+        <v>0.61820524930953902</v>
+      </c>
+      <c r="E66" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="158">
+        <v>0.51780313253402699</v>
+      </c>
+      <c r="G66" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="158">
+        <v>0.73498833179473799</v>
+      </c>
+      <c r="I66" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="158">
+        <v>0.41774642467498702</v>
+      </c>
+      <c r="K66" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" s="158"/>
+      <c r="M66" s="158"/>
+      <c r="N66" s="158">
+        <v>0.50117099285125699</v>
+      </c>
+      <c r="O66" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="P66" s="158">
+        <v>0.46780136227607699</v>
+      </c>
+      <c r="Q66" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="R66" s="158">
+        <v>0.75172734260559004</v>
+      </c>
+      <c r="S66" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T66" s="158">
+        <v>0.61802375316619795</v>
+      </c>
+      <c r="U66" s="158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B67" s="158">
+        <v>0.78505986928939797</v>
+      </c>
+      <c r="C67" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="158">
+        <v>0.78524571657180697</v>
+      </c>
+      <c r="E67" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="158">
+        <v>0.55121457576751698</v>
+      </c>
+      <c r="G67" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="158">
+        <v>0.65156865119934004</v>
+      </c>
+      <c r="I67" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="158">
+        <v>0.41777420043945301</v>
+      </c>
+      <c r="K67" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" s="158">
+        <v>0.417759180068969</v>
+      </c>
+      <c r="M67" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="N67" s="158">
+        <v>0.45094522833824102</v>
+      </c>
+      <c r="O67" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="P67" s="158">
+        <v>0.46784225106239302</v>
+      </c>
+      <c r="Q67" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="R67" s="158">
+        <v>0.75159126520156805</v>
+      </c>
+      <c r="S67" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T67" s="158">
+        <v>0.55122369527816695</v>
+      </c>
+      <c r="U67" s="158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B68" s="158">
+        <v>0.85189050436019897</v>
+      </c>
+      <c r="C68" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="158">
+        <v>0.58467662334442105</v>
+      </c>
+      <c r="E68" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="158">
+        <v>0.53454262018203702</v>
+      </c>
+      <c r="G68" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="158">
+        <v>0.75171893835067705</v>
+      </c>
+      <c r="I68" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="158">
+        <v>0.451155304908752</v>
+      </c>
+      <c r="K68" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68" s="158">
+        <v>0.50130873918533303</v>
+      </c>
+      <c r="M68" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="N68" s="158">
+        <v>0.43429765105247498</v>
+      </c>
+      <c r="O68" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="P68" s="158">
+        <v>0.45112532377242998</v>
+      </c>
+      <c r="Q68" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="R68" s="158">
+        <v>0.50107103586196899</v>
+      </c>
+      <c r="S68" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T68" s="158">
+        <v>0.63473349809646595</v>
+      </c>
+      <c r="U68" s="158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B69" s="158">
+        <v>0.73517501354217496</v>
+      </c>
+      <c r="C69" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="158">
+        <v>0.61809104681015004</v>
+      </c>
+      <c r="E69" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="158">
+        <v>0.55126893520355202</v>
+      </c>
+      <c r="G69" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="158">
+        <v>0.48443984985351501</v>
+      </c>
+      <c r="I69" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" s="158">
+        <v>0.71770519018173196</v>
+      </c>
+      <c r="K69" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" s="158">
+        <v>0.400987088680267</v>
+      </c>
+      <c r="M69" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="N69" s="158">
+        <v>0.55130052566528298</v>
+      </c>
+      <c r="O69" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="P69" s="158">
+        <v>0.50121891498565596</v>
+      </c>
+      <c r="Q69" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="R69" s="158">
+        <v>0.81846815347671498</v>
+      </c>
+      <c r="S69" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T69" s="158">
+        <v>0.65124541521072299</v>
+      </c>
+      <c r="U69" s="158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B70" s="158">
+        <v>0.60143458843231201</v>
+      </c>
+      <c r="C70" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="158">
+        <v>0.601387798786163</v>
+      </c>
+      <c r="E70" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="158">
+        <v>0.58466660976409901</v>
+      </c>
+      <c r="G70" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="158">
+        <v>0.55126178264617898</v>
+      </c>
+      <c r="I70" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" s="158">
+        <v>0.46784216165542603</v>
+      </c>
+      <c r="K70" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70" s="158">
+        <v>0.484517872333526</v>
+      </c>
+      <c r="M70" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="N70" s="158">
+        <v>0.40089046955108598</v>
+      </c>
+      <c r="O70" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="P70" s="158">
+        <v>0.51790249347686701</v>
+      </c>
+      <c r="Q70" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="R70" s="158">
+        <v>0.66835504770278897</v>
+      </c>
+      <c r="S70" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T70" s="158">
+        <v>0.70146793127059903</v>
+      </c>
+      <c r="U70" s="158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B71" s="158">
+        <v>0.76849889755249001</v>
+      </c>
+      <c r="C71" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="158">
+        <v>0.66823899745941095</v>
+      </c>
+      <c r="E71" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="158">
+        <v>0.53454649448394698</v>
+      </c>
+      <c r="G71" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" s="158">
+        <v>0.53452140092849698</v>
+      </c>
+      <c r="I71" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71" s="158">
+        <v>0.41776034235954201</v>
+      </c>
+      <c r="K71" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71" s="158">
+        <v>0.46780228614807101</v>
+      </c>
+      <c r="M71" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="N71" s="158">
+        <v>0.56793725490570002</v>
+      </c>
+      <c r="O71" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="P71" s="158">
+        <v>0.46783801913261402</v>
+      </c>
+      <c r="Q71" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="R71" s="158">
+        <v>0.55127924680709794</v>
+      </c>
+      <c r="S71" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T71" s="158">
+        <v>0.56791579723358099</v>
+      </c>
+      <c r="U71" s="158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B72" s="158">
+        <v>0.93554115295410101</v>
+      </c>
+      <c r="C72" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="158">
+        <v>0.56790012121200495</v>
+      </c>
+      <c r="E72" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="158">
+        <v>0.80184549093246404</v>
+      </c>
+      <c r="G72" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="158">
+        <v>0.56792509555816595</v>
+      </c>
+      <c r="I72" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72" s="158">
+        <v>0.401060760021209</v>
+      </c>
+      <c r="K72" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="158">
+        <v>0.58475333452224698</v>
+      </c>
+      <c r="M72" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72" s="158">
+        <v>0.60132867097854603</v>
+      </c>
+      <c r="O72" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="P72" s="158">
+        <v>0.53464102745056097</v>
+      </c>
+      <c r="Q72" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="R72" s="158"/>
+      <c r="S72" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T72" s="158">
+        <v>0.46770998835563599</v>
+      </c>
+      <c r="U72" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B73" s="158">
+        <v>0.65148121118545499</v>
+      </c>
+      <c r="C73" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="158">
+        <v>0.55116951465606601</v>
+      </c>
+      <c r="E73" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="158">
+        <v>0.71831685304641701</v>
+      </c>
+      <c r="G73" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" s="158">
+        <v>0.63418692350387496</v>
+      </c>
+      <c r="I73" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" s="158">
+        <v>0.38429969549178999</v>
+      </c>
+      <c r="K73" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" s="158">
+        <v>0.852111876010894</v>
+      </c>
+      <c r="M73" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="N73" s="158">
+        <v>0.60140097141265803</v>
+      </c>
+      <c r="O73" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="P73" s="158">
+        <v>0.53369140625</v>
+      </c>
+      <c r="Q73" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R73" s="158">
+        <v>0.61799359321594205</v>
+      </c>
+      <c r="S73" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T73" s="158">
+        <v>0.58461475372314398</v>
+      </c>
+      <c r="U73" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B74" s="158">
+        <v>0.68487083911895696</v>
+      </c>
+      <c r="C74" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="158">
+        <v>0.53468060493469205</v>
+      </c>
+      <c r="E74" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="158">
+        <v>0.53446370363235396</v>
+      </c>
+      <c r="G74" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="158">
+        <v>0.48446211218833901</v>
+      </c>
+      <c r="I74" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="158">
+        <v>0.40102612972259499</v>
+      </c>
+      <c r="K74" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L74" s="158">
+        <v>0.45111885666847201</v>
+      </c>
+      <c r="M74" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74" s="158">
+        <v>0.91835278272628695</v>
+      </c>
+      <c r="O74" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="P74" s="158">
+        <v>0.651492118835449</v>
+      </c>
+      <c r="Q74" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R74" s="158">
+        <v>0.61796844005584695</v>
+      </c>
+      <c r="S74" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T74" s="158">
+        <v>0.73496907949447599</v>
+      </c>
+      <c r="U74" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B75" s="158">
+        <v>0.75169450044631902</v>
+      </c>
+      <c r="C75" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="158">
+        <v>0.66739213466644198</v>
+      </c>
+      <c r="E75" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="158">
+        <v>0.70091831684112504</v>
+      </c>
+      <c r="G75" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="158">
+        <v>0.60135841369628895</v>
+      </c>
+      <c r="I75" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" s="158">
+        <v>0.40103039145469599</v>
+      </c>
+      <c r="K75" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L75" s="158">
+        <v>0.45110645890235901</v>
+      </c>
+      <c r="M75" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="N75" s="158">
+        <v>0.45106616616249001</v>
+      </c>
+      <c r="O75" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="P75" s="158">
+        <v>0.51798766851425104</v>
+      </c>
+      <c r="Q75" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R75" s="158">
+        <v>0.65150183439254705</v>
+      </c>
+      <c r="S75" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T75" s="158">
+        <v>0.71827065944671598</v>
+      </c>
+      <c r="U75" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B76" s="158">
+        <v>0.60132020711898804</v>
+      </c>
+      <c r="C76" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="158">
+        <v>0.48445436358451799</v>
+      </c>
+      <c r="E76" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="158">
+        <v>0.51782244443893399</v>
+      </c>
+      <c r="G76" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="158">
+        <v>0.46780863404273898</v>
+      </c>
+      <c r="I76" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="158">
+        <v>0.467927485704422</v>
+      </c>
+      <c r="K76" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L76" s="158"/>
+      <c r="M76" s="158"/>
+      <c r="N76" s="158">
+        <v>0.45102381706237699</v>
+      </c>
+      <c r="O76" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="P76" s="158">
+        <v>0.45115074515342701</v>
+      </c>
+      <c r="Q76" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R76" s="158">
+        <v>0.58447492122650102</v>
+      </c>
+      <c r="S76" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T76" s="158">
+        <v>0.66817712783813399</v>
+      </c>
+      <c r="U76" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B77" s="158">
+        <v>0.78505182266235296</v>
+      </c>
+      <c r="C77" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="158">
+        <v>0.60140079259872403</v>
+      </c>
+      <c r="E77" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="158">
+        <v>0.46762579679489102</v>
+      </c>
+      <c r="G77" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" s="158">
+        <v>0.484404206275939</v>
+      </c>
+      <c r="I77" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" s="158">
+        <v>0.45115417242050099</v>
+      </c>
+      <c r="K77" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L77" s="158">
+        <v>0.50124788284301702</v>
+      </c>
+      <c r="M77" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="N77" s="158">
+        <v>0.48428708314895602</v>
+      </c>
+      <c r="O77" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="P77" s="158">
+        <v>0.46781975030898998</v>
+      </c>
+      <c r="Q77" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R77" s="158">
+        <v>0.85209083557128895</v>
+      </c>
+      <c r="S77" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T77" s="158">
+        <v>0.567907094955444</v>
+      </c>
+      <c r="U77" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B78" s="158">
+        <v>0.818462014198303</v>
+      </c>
+      <c r="C78" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="158">
+        <v>0.60139173269271795</v>
+      </c>
+      <c r="E78" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="158">
+        <v>0.53447043895721402</v>
+      </c>
+      <c r="G78" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" s="158">
+        <v>0.53458803892135598</v>
+      </c>
+      <c r="I78" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="J78" s="158">
+        <v>0.50125497579574496</v>
+      </c>
+      <c r="K78" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" s="158">
+        <v>0.41764596104621798</v>
+      </c>
+      <c r="M78" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78" s="158">
+        <v>0.434281855821609</v>
+      </c>
+      <c r="O78" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="P78" s="158">
+        <v>0.48439490795135498</v>
+      </c>
+      <c r="Q78" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R78" s="158">
+        <v>0.684792220592498</v>
+      </c>
+      <c r="S78" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T78" s="158">
+        <v>0.51783168315887396</v>
+      </c>
+      <c r="U78" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B79" s="158">
+        <v>0.63473469018936102</v>
+      </c>
+      <c r="C79" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="158">
+        <v>0.56804901361465399</v>
+      </c>
+      <c r="E79" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="158">
+        <v>0.45103794336318898</v>
+      </c>
+      <c r="G79" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" s="158">
+        <v>0.58460992574691695</v>
+      </c>
+      <c r="I79" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="J79" s="158">
+        <v>0.48455271124839699</v>
+      </c>
+      <c r="K79" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" s="158">
+        <v>0.48457548022270203</v>
+      </c>
+      <c r="M79" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="N79" s="158">
+        <v>0.46775618195533702</v>
+      </c>
+      <c r="O79" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="P79" s="158">
+        <v>0.518060863018035</v>
+      </c>
+      <c r="Q79" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R79" s="158">
+        <v>0.96879285573959295</v>
+      </c>
+      <c r="S79" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T79" s="158">
+        <v>0.68481791019439697</v>
+      </c>
+      <c r="U79" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B80" s="158">
+        <v>0.68483316898345903</v>
+      </c>
+      <c r="C80" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="158">
+        <v>0.50035017728805498</v>
+      </c>
+      <c r="E80" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="158">
+        <v>0.46773162484169001</v>
+      </c>
+      <c r="G80" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" s="158">
+        <v>0.46792545914649902</v>
+      </c>
+      <c r="I80" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="J80" s="158">
+        <v>0.53467476367950395</v>
+      </c>
+      <c r="K80" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L80" s="158">
+        <v>0.55135899782180697</v>
+      </c>
+      <c r="M80" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="N80" s="158">
+        <v>0.56795567274093595</v>
+      </c>
+      <c r="O80" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="P80" s="158">
+        <v>0.58452475070953303</v>
+      </c>
+      <c r="Q80" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R80" s="158">
+        <v>0.51780205965042103</v>
+      </c>
+      <c r="S80" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="T80" s="158">
+        <v>0.43429070711135798</v>
+      </c>
+      <c r="U80" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B81" s="158">
+        <v>0.65142792463302601</v>
+      </c>
+      <c r="C81" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="158">
+        <v>0.50135123729705799</v>
+      </c>
+      <c r="E81" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="158">
+        <v>0.53464454412460305</v>
+      </c>
+      <c r="G81" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="158">
+        <v>0.61811119318008401</v>
+      </c>
+      <c r="I81" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="J81" s="158">
+        <v>0.38419523835182101</v>
+      </c>
+      <c r="K81" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L81" s="158">
+        <v>0.53477120399475098</v>
+      </c>
+      <c r="M81" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="N81" s="158">
+        <v>0.43437302112579301</v>
+      </c>
+      <c r="O81" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="P81" s="158">
+        <v>0.48448815941810602</v>
+      </c>
+      <c r="Q81" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R81" s="158">
+        <v>0.80181789398193304</v>
+      </c>
+      <c r="S81" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="T81" s="158">
+        <v>0.53450685739517201</v>
+      </c>
+      <c r="U81" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B82" s="158">
+        <v>0.56783437728881803</v>
+      </c>
+      <c r="C82" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="158">
+        <v>0.50038635730743397</v>
+      </c>
+      <c r="E82" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" s="158">
+        <v>0.55125886201858498</v>
+      </c>
+      <c r="G82" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" s="158">
+        <v>0.58394122123718195</v>
+      </c>
+      <c r="I82" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="J82" s="158">
+        <v>0.334227055311203</v>
+      </c>
+      <c r="K82" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" s="158">
+        <v>0.51800692081451405</v>
+      </c>
+      <c r="M82" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="N82" s="158">
+        <v>0.51782029867172197</v>
+      </c>
+      <c r="O82" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="P82" s="158">
+        <v>0.45113614201545699</v>
+      </c>
+      <c r="Q82" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R82" s="158">
+        <v>0.867842197418212</v>
+      </c>
+      <c r="S82" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="T82" s="158">
+        <v>0.55121648311614901</v>
+      </c>
+      <c r="U82" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B83" s="158">
+        <v>0.634690821170806</v>
+      </c>
+      <c r="C83" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="158">
+        <v>0.53372627496719305</v>
+      </c>
+      <c r="E83" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="158">
+        <v>0.50038790702819802</v>
+      </c>
+      <c r="G83" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="158">
+        <v>0.61810946464538497</v>
+      </c>
+      <c r="I83" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="J83" s="158">
+        <v>0.36761283874511702</v>
+      </c>
+      <c r="K83" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L83" s="158">
+        <v>0.46782025694847101</v>
+      </c>
+      <c r="M83" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="N83" s="158">
+        <v>0.45119449496269198</v>
+      </c>
+      <c r="O83" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="P83" s="158">
+        <v>0.433664500713348</v>
+      </c>
+      <c r="Q83" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R83" s="158">
+        <v>0.81808412075042702</v>
+      </c>
+      <c r="S83" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="T83" s="158">
+        <v>0.63475668430328303</v>
+      </c>
+      <c r="U83" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B84" s="158">
+        <v>0.81848889589309604</v>
+      </c>
+      <c r="C84" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="158">
+        <v>0.53458523750305098</v>
+      </c>
+      <c r="E84" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="158">
+        <v>0.48441433906555098</v>
+      </c>
+      <c r="G84" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" s="158">
+        <v>0.65147215127944902</v>
+      </c>
+      <c r="I84" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="J84" s="158">
+        <v>0.38434711098670898</v>
+      </c>
+      <c r="K84" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" s="158">
+        <v>0.55056077241897505</v>
+      </c>
+      <c r="M84" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="N84" s="158">
+        <v>0.46778932213783198</v>
+      </c>
+      <c r="O84" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="P84" s="158">
+        <v>0.45116043090820301</v>
+      </c>
+      <c r="Q84" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R84" s="158">
+        <v>0.63479536771774203</v>
+      </c>
+      <c r="S84" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="T84" s="158">
+        <v>0.41760548949241599</v>
+      </c>
+      <c r="U84" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B85" s="158">
+        <v>0.86860877275466897</v>
+      </c>
+      <c r="C85" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="158">
+        <v>0.58454459905624301</v>
+      </c>
+      <c r="E85" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="158">
+        <v>0.467706739902496</v>
+      </c>
+      <c r="G85" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" s="158">
+        <v>0.48440197110175998</v>
+      </c>
+      <c r="I85" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" s="158">
+        <v>0.48457089066505399</v>
+      </c>
+      <c r="K85" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L85" s="158">
+        <v>0.46772566437721202</v>
+      </c>
+      <c r="M85" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="N85" s="158">
+        <v>0.51791357994079501</v>
+      </c>
+      <c r="O85" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="P85" s="158">
+        <v>0.50131422281265203</v>
+      </c>
+      <c r="Q85" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R85" s="158">
+        <v>0.68484544754028298</v>
+      </c>
+      <c r="S85" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="T85" s="158">
+        <v>0.71823513507842995</v>
+      </c>
+      <c r="U85" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B86" s="158">
+        <v>0.73517048358917203</v>
+      </c>
+      <c r="C86" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="158">
+        <v>0.63418823480606001</v>
+      </c>
+      <c r="E86" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" s="158">
+        <v>0.86860698461532504</v>
+      </c>
+      <c r="G86" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="158">
+        <v>0.517808496952056</v>
+      </c>
+      <c r="I86" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="J86" s="158">
+        <v>0.45112279057502702</v>
+      </c>
+      <c r="K86" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L86" s="158">
+        <v>0.61806935071945102</v>
+      </c>
+      <c r="M86" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="N86" s="158">
+        <v>0.50108891725540095</v>
+      </c>
+      <c r="O86" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="P86" s="158">
+        <v>0.43443271517753601</v>
+      </c>
+      <c r="Q86" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R86" s="158">
+        <v>0.93528711795806796</v>
+      </c>
+      <c r="S86" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="T86" s="158">
+        <v>0.45127958059310902</v>
+      </c>
+      <c r="U86" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B87" s="158">
+        <v>0.73529100418090798</v>
+      </c>
+      <c r="C87" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="158">
+        <v>0.55122578144073398</v>
+      </c>
+      <c r="E87" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" s="158">
+        <v>0.45101043581962502</v>
+      </c>
+      <c r="G87" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" s="158">
+        <v>0.65144574642181396</v>
+      </c>
+      <c r="I87" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="J87" s="158">
+        <v>0.43442237377166698</v>
+      </c>
+      <c r="K87" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L87" s="158">
+        <v>0.55133843421936002</v>
+      </c>
+      <c r="M87" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="N87" s="158">
+        <v>0.51791036128997803</v>
+      </c>
+      <c r="O87" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="P87" s="158">
+        <v>0.46778404712677002</v>
+      </c>
+      <c r="Q87" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R87" s="158">
+        <v>0.56789898872375399</v>
+      </c>
+      <c r="S87" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="T87" s="158">
+        <v>0.51780438423156705</v>
+      </c>
+      <c r="U87" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B88" s="158">
+        <v>0.63486713171005205</v>
+      </c>
+      <c r="C88" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="158">
+        <v>0.61805820465087802</v>
+      </c>
+      <c r="E88" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="158">
+        <v>0.517813980579376</v>
+      </c>
+      <c r="G88" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" s="158">
+        <v>0.60138905048370295</v>
+      </c>
+      <c r="I88" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="J88" s="158">
+        <v>0.384304970502853</v>
+      </c>
+      <c r="K88" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" s="158">
+        <v>0.51794558763503995</v>
+      </c>
+      <c r="M88" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="N88" s="158">
+        <v>0.48440641164779602</v>
+      </c>
+      <c r="O88" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="P88" s="158">
+        <v>0.45107287168502802</v>
+      </c>
+      <c r="Q88" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R88" s="158">
+        <v>0.58469027280807495</v>
+      </c>
+      <c r="S88" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="T88" s="158">
+        <v>0.70168185234069802</v>
+      </c>
+      <c r="U88" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B89" s="158">
+        <v>0.70150929689407304</v>
+      </c>
+      <c r="C89" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="158">
+        <v>0.48440378904342601</v>
+      </c>
+      <c r="E89" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" s="158">
+        <v>0.48445594310760498</v>
+      </c>
+      <c r="G89" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89" s="158">
+        <v>0.61802613735198897</v>
+      </c>
+      <c r="I89" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="J89" s="158">
+        <v>0.40097934007644598</v>
+      </c>
+      <c r="K89" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L89" s="158">
+        <v>0.46786201000213601</v>
+      </c>
+      <c r="M89" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="N89" s="158">
+        <v>0.55121326446533203</v>
+      </c>
+      <c r="O89" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="P89" s="158">
+        <v>0.50128781795501698</v>
+      </c>
+      <c r="Q89" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R89" s="158">
+        <v>0.75159549713134699</v>
+      </c>
+      <c r="S89" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="T89" s="158">
+        <v>0.58459639549255304</v>
+      </c>
+      <c r="U89" s="158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B90" s="158"/>
+      <c r="C90" s="158"/>
+      <c r="D90" s="158"/>
+      <c r="E90" s="158"/>
+      <c r="F90" s="158">
+        <v>0.50115418434143</v>
+      </c>
+      <c r="G90" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H90" s="158">
+        <v>0.61803203821182195</v>
+      </c>
+      <c r="I90" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="J90" s="158">
+        <v>0.36757707595825101</v>
+      </c>
+      <c r="K90" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="L90" s="158">
+        <v>0.51801502704620295</v>
+      </c>
+      <c r="M90" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="N90" s="158">
+        <v>0.51788228750228804</v>
+      </c>
+      <c r="O90" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="P90" s="158">
+        <v>0.56811213493347101</v>
+      </c>
+      <c r="Q90" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="R90" s="158">
+        <v>0.68482369184493996</v>
+      </c>
+      <c r="S90" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="T90" s="158">
+        <v>0.70153683423995905</v>
+      </c>
+      <c r="U90" s="158" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R33:S62">
+    <sortCondition ref="S33"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C18:F18"/>
   </mergeCells>
